--- a/state_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
+++ b/state_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U407"/>
+  <dimension ref="A1:U427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.004</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0043803390188237</v>
+        <v>0.0043808312915446</v>
       </c>
       <c r="H2" t="n">
         <v>0.013</v>
@@ -651,7 +651,7 @@
         <v>0.004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0043803390188237</v>
+        <v>0.0043808312915446</v>
       </c>
       <c r="H3" t="n">
         <v>0.013</v>
@@ -732,7 +732,7 @@
         <v>0.01034</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0158987672082143</v>
+        <v>0.0158971033984796</v>
       </c>
       <c r="H4" t="n">
         <v>0.141608510479923</v>
@@ -813,7 +813,7 @@
         <v>0.01034</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0158987672082143</v>
+        <v>0.0158971033984796</v>
       </c>
       <c r="H5" t="n">
         <v>0.141608510479923</v>
@@ -894,7 +894,7 @@
         <v>0.125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.164174013988516</v>
+        <v>0.164198900018742</v>
       </c>
       <c r="H6" t="n">
         <v>0.63</v>
@@ -975,7 +975,7 @@
         <v>0.125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.164174013988516</v>
+        <v>0.164198900018742</v>
       </c>
       <c r="H7" t="n">
         <v>0.63</v>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.148</v>
+        <v>0.14825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.18287037037037</v>
+        <v>0.18287962962963</v>
       </c>
       <c r="H8" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I8" t="n">
         <v>0.391</v>
@@ -1063,13 +1063,13 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.0835</v>
+        <v>0.08325</v>
       </c>
       <c r="M8" t="n">
-        <v>0.30368</v>
+        <v>0.3035</v>
       </c>
       <c r="N8" t="n">
-        <v>0.38198</v>
+        <v>0.38239</v>
       </c>
       <c r="O8" t="n">
         <v>1795602</v>
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.148</v>
+        <v>0.14825</v>
       </c>
       <c r="G9" t="n">
-        <v>0.18287037037037</v>
+        <v>0.18287962962963</v>
       </c>
       <c r="H9" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I9" t="n">
         <v>0.391</v>
@@ -1140,13 +1140,13 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.0835</v>
+        <v>0.08325</v>
       </c>
       <c r="M9" t="n">
-        <v>0.30368</v>
+        <v>0.3035</v>
       </c>
       <c r="N9" t="n">
-        <v>0.38198</v>
+        <v>0.38239</v>
       </c>
       <c r="O9" t="n">
         <v>1795602</v>
@@ -1206,7 +1206,7 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0505852781214586</v>
+        <v>0.0505884762377932</v>
       </c>
       <c r="H10" t="n">
         <v>0.4</v>
@@ -1283,7 +1283,7 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0505852781214586</v>
+        <v>0.0505884762377932</v>
       </c>
       <c r="H11" t="n">
         <v>0.4</v>
@@ -1364,7 +1364,7 @@
         <v>0.004</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0041646116262885</v>
+        <v>0.0041666379667906</v>
       </c>
       <c r="H12" t="n">
         <v>0.013</v>
@@ -1445,7 +1445,7 @@
         <v>0.004</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0041646116262885</v>
+        <v>0.0041666379667906</v>
       </c>
       <c r="H13" t="n">
         <v>0.013</v>
@@ -1526,7 +1526,7 @@
         <v>0.01003</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0148982693323517</v>
+        <v>0.0148954902718778</v>
       </c>
       <c r="H14" t="n">
         <v>0.141608510479923</v>
@@ -1607,7 +1607,7 @@
         <v>0.01003</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0148982693323517</v>
+        <v>0.0148954902718778</v>
       </c>
       <c r="H15" t="n">
         <v>0.141608510479923</v>
@@ -1688,7 +1688,7 @@
         <v>0.12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.158256612589665</v>
+        <v>0.158279010016868</v>
       </c>
       <c r="H16" t="n">
         <v>0.63</v>
@@ -1769,7 +1769,7 @@
         <v>0.12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.158256612589665</v>
+        <v>0.158279010016868</v>
       </c>
       <c r="H17" t="n">
         <v>0.63</v>
@@ -1846,10 +1846,10 @@
         <v>0.1335</v>
       </c>
       <c r="G18" t="n">
-        <v>0.176116666666667</v>
+        <v>0.176125</v>
       </c>
       <c r="H18" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I18" t="n">
         <v>0.391</v>
@@ -1857,13 +1857,13 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.0735</v>
+        <v>0.07375</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3032</v>
+        <v>0.303</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3683</v>
+        <v>0.36865</v>
       </c>
       <c r="O18" t="n">
         <v>1795602</v>
@@ -1923,10 +1923,10 @@
         <v>0.1335</v>
       </c>
       <c r="G19" t="n">
-        <v>0.176116666666667</v>
+        <v>0.176125</v>
       </c>
       <c r="H19" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I19" t="n">
         <v>0.391</v>
@@ -1934,13 +1934,13 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.0735</v>
+        <v>0.07375</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3032</v>
+        <v>0.303</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3683</v>
+        <v>0.36865</v>
       </c>
       <c r="O19" t="n">
         <v>1795602</v>
@@ -2000,7 +2000,7 @@
         <v>0.02</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0431114336597092</v>
+        <v>0.0431141736453116</v>
       </c>
       <c r="H20" t="n">
         <v>0.37</v>
@@ -2077,7 +2077,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0431114336597092</v>
+        <v>0.0431141736453116</v>
       </c>
       <c r="H21" t="n">
         <v>0.37</v>
@@ -2158,7 +2158,7 @@
         <v>0.004</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0041157637914036</v>
+        <v>0.0041184049792847</v>
       </c>
       <c r="H22" t="n">
         <v>0.015</v>
@@ -2239,7 +2239,7 @@
         <v>0.004</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0041157637914036</v>
+        <v>0.0041184049792847</v>
       </c>
       <c r="H23" t="n">
         <v>0.015</v>
@@ -2320,7 +2320,7 @@
         <v>0.00809</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0138923352547623</v>
+        <v>0.0138888548694064</v>
       </c>
       <c r="H24" t="n">
         <v>0.141608510479923</v>
@@ -2401,7 +2401,7 @@
         <v>0.00809</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0138923352547623</v>
+        <v>0.0138888548694064</v>
       </c>
       <c r="H25" t="n">
         <v>0.141608510479923</v>
@@ -2482,7 +2482,7 @@
         <v>0.12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.157447534515485</v>
+        <v>0.157464056183879</v>
       </c>
       <c r="H26" t="n">
         <v>0.63</v>
@@ -2563,7 +2563,7 @@
         <v>0.12</v>
       </c>
       <c r="G27" t="n">
-        <v>0.157447534515485</v>
+        <v>0.157464056183879</v>
       </c>
       <c r="H27" t="n">
         <v>0.63</v>
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.14</v>
+        <v>0.1405</v>
       </c>
       <c r="G28" t="n">
-        <v>0.174322033898305</v>
+        <v>0.174338983050847</v>
       </c>
       <c r="H28" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I28" t="n">
         <v>0.391</v>
@@ -2651,13 +2651,13 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.0775</v>
+        <v>0.078</v>
       </c>
       <c r="M28" t="n">
         <v>0.28134</v>
       </c>
       <c r="N28" t="n">
-        <v>0.37032</v>
+        <v>0.3706</v>
       </c>
       <c r="O28" t="n">
         <v>1795602</v>
@@ -2714,13 +2714,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.14</v>
+        <v>0.1405</v>
       </c>
       <c r="G29" t="n">
-        <v>0.174322033898305</v>
+        <v>0.174338983050847</v>
       </c>
       <c r="H29" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I29" t="n">
         <v>0.391</v>
@@ -2728,13 +2728,13 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.0775</v>
+        <v>0.078</v>
       </c>
       <c r="M29" t="n">
         <v>0.28134</v>
       </c>
       <c r="N29" t="n">
-        <v>0.37032</v>
+        <v>0.3706</v>
       </c>
       <c r="O29" t="n">
         <v>1795602</v>
@@ -2798,7 +2798,7 @@
         <v>0.004</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0045408783104003</v>
+        <v>0.0045436121715403</v>
       </c>
       <c r="H30" t="n">
         <v>0.015</v>
@@ -2879,7 +2879,7 @@
         <v>0.004</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0045408783104003</v>
+        <v>0.0045436121715403</v>
       </c>
       <c r="H31" t="n">
         <v>0.015</v>
@@ -2960,7 +2960,7 @@
         <v>0.0068</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0142151023002221</v>
+        <v>0.014210949226207</v>
       </c>
       <c r="H32" t="n">
         <v>0.141608510479923</v>
@@ -3041,7 +3041,7 @@
         <v>0.0068</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0142151023002221</v>
+        <v>0.014210949226207</v>
       </c>
       <c r="H33" t="n">
         <v>0.141608510479923</v>
@@ -3122,7 +3122,7 @@
         <v>0.17</v>
       </c>
       <c r="G34" t="n">
-        <v>0.171454086533118</v>
+        <v>0.171463917797528</v>
       </c>
       <c r="H34" t="n">
         <v>0.63</v>
@@ -3203,7 +3203,7 @@
         <v>0.17</v>
       </c>
       <c r="G35" t="n">
-        <v>0.171454086533118</v>
+        <v>0.171463917797528</v>
       </c>
       <c r="H35" t="n">
         <v>0.63</v>
@@ -3277,13 +3277,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.196</v>
+        <v>0.1955</v>
       </c>
       <c r="G36" t="n">
         <v>0.189350877192982</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I36" t="n">
         <v>0.42285</v>
@@ -3297,7 +3297,7 @@
         <v>0.30677</v>
       </c>
       <c r="N36" t="n">
-        <v>0.39034</v>
+        <v>0.39037</v>
       </c>
       <c r="O36" t="n">
         <v>1795602</v>
@@ -3354,13 +3354,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.196</v>
+        <v>0.1955</v>
       </c>
       <c r="G37" t="n">
         <v>0.189350877192982</v>
       </c>
       <c r="H37" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I37" t="n">
         <v>0.42285</v>
@@ -3374,7 +3374,7 @@
         <v>0.30677</v>
       </c>
       <c r="N37" t="n">
-        <v>0.39034</v>
+        <v>0.39037</v>
       </c>
       <c r="O37" t="n">
         <v>1795602</v>
@@ -3438,7 +3438,7 @@
         <v>0.004</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0043388995370485</v>
+        <v>0.0043417812492945</v>
       </c>
       <c r="H38" t="n">
         <v>0.015</v>
@@ -3519,7 +3519,7 @@
         <v>0.004</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0043388995370485</v>
+        <v>0.0043417812492945</v>
       </c>
       <c r="H39" t="n">
         <v>0.015</v>
@@ -3600,7 +3600,7 @@
         <v>0.0068</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0119509655212861</v>
+        <v>0.0119468124472709</v>
       </c>
       <c r="H40" t="n">
         <v>0.07935096580832871</v>
@@ -3681,7 +3681,7 @@
         <v>0.0068</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0119509655212861</v>
+        <v>0.0119468124472709</v>
       </c>
       <c r="H41" t="n">
         <v>0.07935096580832871</v>
@@ -3762,7 +3762,7 @@
         <v>0.14</v>
       </c>
       <c r="G42" t="n">
-        <v>0.163764211958642</v>
+        <v>0.163795269623351</v>
       </c>
       <c r="H42" t="n">
         <v>0.63</v>
@@ -3843,7 +3843,7 @@
         <v>0.14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.163764211958642</v>
+        <v>0.163795269623351</v>
       </c>
       <c r="H43" t="n">
         <v>0.63</v>
@@ -3920,10 +3920,10 @@
         <v>0.152</v>
       </c>
       <c r="G44" t="n">
-        <v>0.181877192982456</v>
+        <v>0.181868421052632</v>
       </c>
       <c r="H44" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I44" t="n">
         <v>0.426</v>
@@ -3931,7 +3931,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.0775</v>
+        <v>0.078</v>
       </c>
       <c r="M44" t="n">
         <v>0.3081</v>
@@ -3997,10 +3997,10 @@
         <v>0.152</v>
       </c>
       <c r="G45" t="n">
-        <v>0.181877192982456</v>
+        <v>0.181868421052632</v>
       </c>
       <c r="H45" t="n">
-        <v>0.65</v>
+        <v>0.6505</v>
       </c>
       <c r="I45" t="n">
         <v>0.426</v>
@@ -4008,7 +4008,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.0775</v>
+        <v>0.078</v>
       </c>
       <c r="M45" t="n">
         <v>0.3081</v>
@@ -4078,7 +4078,7 @@
         <v>0.004</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0046784958838503</v>
+        <v>0.0046814823856325</v>
       </c>
       <c r="H46" t="n">
         <v>0.015</v>
@@ -4159,7 +4159,7 @@
         <v>0.004</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0046784958838503</v>
+        <v>0.0046814823856325</v>
       </c>
       <c r="H47" t="n">
         <v>0.015</v>
@@ -4240,7 +4240,7 @@
         <v>0.01058</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0176294053633245</v>
+        <v>0.0176257270490694</v>
       </c>
       <c r="H48" t="n">
         <v>0.135008624301486</v>
@@ -4321,7 +4321,7 @@
         <v>0.01058</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0176294053633245</v>
+        <v>0.0176257270490694</v>
       </c>
       <c r="H49" t="n">
         <v>0.135008624301486</v>
@@ -4402,7 +4402,7 @@
         <v>0.12</v>
       </c>
       <c r="G50" t="n">
-        <v>0.140423516014278</v>
+        <v>0.140467227287075</v>
       </c>
       <c r="H50" t="n">
         <v>0.4</v>
@@ -4483,7 +4483,7 @@
         <v>0.12</v>
       </c>
       <c r="G51" t="n">
-        <v>0.140423516014278</v>
+        <v>0.140467227287075</v>
       </c>
       <c r="H51" t="n">
         <v>0.4</v>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.14</v>
+        <v>0.1405</v>
       </c>
       <c r="G52" t="n">
         <v>0.162290909090909</v>
@@ -4571,7 +4571,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.08</v>
+        <v>0.0805</v>
       </c>
       <c r="M52" t="n">
         <v>0.3015</v>
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.14</v>
+        <v>0.1405</v>
       </c>
       <c r="G53" t="n">
         <v>0.162290909090909</v>
@@ -4648,7 +4648,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.08</v>
+        <v>0.0805</v>
       </c>
       <c r="M53" t="n">
         <v>0.3015</v>
@@ -4799,7 +4799,7 @@
         <v>0.004</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0052768588093117</v>
+        <v>0.0052794201235361</v>
       </c>
       <c r="H55" t="n">
         <v>0.04</v>
@@ -4880,7 +4880,7 @@
         <v>0.004</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0052768588093117</v>
+        <v>0.0052794201235361</v>
       </c>
       <c r="H56" t="n">
         <v>0.04</v>
@@ -4961,7 +4961,7 @@
         <v>0.02023</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0228041073178088</v>
+        <v>0.0228022925757159</v>
       </c>
       <c r="H57" t="n">
         <v>0.135008624301486</v>
@@ -5042,7 +5042,7 @@
         <v>0.02023</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0228041073178088</v>
+        <v>0.0228022925757159</v>
       </c>
       <c r="H58" t="n">
         <v>0.135008624301486</v>
@@ -5123,7 +5123,7 @@
         <v>0.11</v>
       </c>
       <c r="G59" t="n">
-        <v>0.137150788741551</v>
+        <v>0.137194500014348</v>
       </c>
       <c r="H59" t="n">
         <v>0.4</v>
@@ -5204,7 +5204,7 @@
         <v>0.11</v>
       </c>
       <c r="G60" t="n">
-        <v>0.137150788741551</v>
+        <v>0.137194500014348</v>
       </c>
       <c r="H60" t="n">
         <v>0.4</v>
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.14</v>
+        <v>0.1405</v>
       </c>
       <c r="G61" t="n">
         <v>0.163072727272727</v>
@@ -5292,7 +5292,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.09</v>
+        <v>0.0905</v>
       </c>
       <c r="M61" t="n">
         <v>0.26</v>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.14</v>
+        <v>0.1405</v>
       </c>
       <c r="G62" t="n">
         <v>0.163072727272727</v>
@@ -5369,7 +5369,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.09</v>
+        <v>0.0905</v>
       </c>
       <c r="M62" t="n">
         <v>0.26</v>
@@ -5520,7 +5520,7 @@
         <v>0.005</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0058386083905576</v>
+        <v>0.0058426726550708</v>
       </c>
       <c r="H64" t="n">
         <v>0.04</v>
@@ -5601,7 +5601,7 @@
         <v>0.005</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0058386083905576</v>
+        <v>0.0058426726550708</v>
       </c>
       <c r="H65" t="n">
         <v>0.04</v>
@@ -5682,7 +5682,7 @@
         <v>0.02035</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0243666441739482</v>
+        <v>0.0243667933172617</v>
       </c>
       <c r="H66" t="n">
         <v>0.135008624301486</v>
@@ -5763,7 +5763,7 @@
         <v>0.02035</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0243666441739482</v>
+        <v>0.0243667933172617</v>
       </c>
       <c r="H67" t="n">
         <v>0.135008624301486</v>
@@ -5844,7 +5844,7 @@
         <v>0.105</v>
       </c>
       <c r="G68" t="n">
-        <v>0.137330984140052</v>
+        <v>0.13742511164925</v>
       </c>
       <c r="H68" t="n">
         <v>0.4</v>
@@ -5925,7 +5925,7 @@
         <v>0.105</v>
       </c>
       <c r="G69" t="n">
-        <v>0.137330984140052</v>
+        <v>0.13742511164925</v>
       </c>
       <c r="H69" t="n">
         <v>0.4</v>
@@ -6002,7 +6002,7 @@
         <v>0.145</v>
       </c>
       <c r="G70" t="n">
-        <v>0.162703703703704</v>
+        <v>0.162675925925926</v>
       </c>
       <c r="H70" t="n">
         <v>0.44</v>
@@ -6079,7 +6079,7 @@
         <v>0.145</v>
       </c>
       <c r="G71" t="n">
-        <v>0.162703703703704</v>
+        <v>0.162675925925926</v>
       </c>
       <c r="H71" t="n">
         <v>0.44</v>
@@ -6241,7 +6241,7 @@
         <v>0.005</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0068415427834565</v>
+        <v>0.0068455331522513</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
@@ -6322,7 +6322,7 @@
         <v>0.005</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0068415427834565</v>
+        <v>0.0068455331522513</v>
       </c>
       <c r="H74" t="n">
         <v>0.04</v>
@@ -6403,7 +6403,7 @@
         <v>110</v>
       </c>
       <c r="G75" t="n">
-        <v>530.560149087124</v>
+        <v>530.563274227342</v>
       </c>
       <c r="H75" t="n">
         <v>5800</v>
@@ -6488,7 +6488,7 @@
         <v>110</v>
       </c>
       <c r="G76" t="n">
-        <v>530.560149087124</v>
+        <v>530.563274227342</v>
       </c>
       <c r="H76" t="n">
         <v>5800</v>
@@ -6573,7 +6573,7 @@
         <v>110</v>
       </c>
       <c r="G77" t="n">
-        <v>530.560149087124</v>
+        <v>530.563274227342</v>
       </c>
       <c r="H77" t="n">
         <v>5800</v>
@@ -6658,7 +6658,7 @@
         <v>110</v>
       </c>
       <c r="G78" t="n">
-        <v>530.560149087124</v>
+        <v>530.563274227342</v>
       </c>
       <c r="H78" t="n">
         <v>5800</v>
@@ -6820,7 +6820,7 @@
         <v>0.01799</v>
       </c>
       <c r="G80" t="n">
-        <v>0.022621059243464</v>
+        <v>0.0226228786251004</v>
       </c>
       <c r="H80" t="n">
         <v>0.135008624301486</v>
@@ -6901,7 +6901,7 @@
         <v>0.01799</v>
       </c>
       <c r="G81" t="n">
-        <v>0.022621059243464</v>
+        <v>0.0226228786251004</v>
       </c>
       <c r="H81" t="n">
         <v>0.135008624301486</v>
@@ -6982,7 +6982,7 @@
         <v>0.12</v>
       </c>
       <c r="G82" t="n">
-        <v>0.137150734097141</v>
+        <v>0.137244648263673</v>
       </c>
       <c r="H82" t="n">
         <v>0.35</v>
@@ -7063,7 +7063,7 @@
         <v>0.12</v>
       </c>
       <c r="G83" t="n">
-        <v>0.137150734097141</v>
+        <v>0.137244648263673</v>
       </c>
       <c r="H83" t="n">
         <v>0.35</v>
@@ -7140,7 +7140,7 @@
         <v>0.15</v>
       </c>
       <c r="G84" t="n">
-        <v>0.159090909090909</v>
+        <v>0.159081818181818</v>
       </c>
       <c r="H84" t="n">
         <v>0.4</v>
@@ -7217,7 +7217,7 @@
         <v>0.15</v>
       </c>
       <c r="G85" t="n">
-        <v>0.159090909090909</v>
+        <v>0.159081818181818</v>
       </c>
       <c r="H85" t="n">
         <v>0.4</v>
@@ -7379,7 +7379,7 @@
         <v>0.006</v>
       </c>
       <c r="G87" t="n">
-        <v>0.008289664476608401</v>
+        <v>0.0082937615387777</v>
       </c>
       <c r="H87" t="n">
         <v>0.04</v>
@@ -7460,7 +7460,7 @@
         <v>0.006</v>
       </c>
       <c r="G88" t="n">
-        <v>0.008289664476608401</v>
+        <v>0.0082937615387777</v>
       </c>
       <c r="H88" t="n">
         <v>0.04</v>
@@ -7541,7 +7541,7 @@
         <v>55</v>
       </c>
       <c r="G89" t="n">
-        <v>461.294294262948</v>
+        <v>461.30687426258</v>
       </c>
       <c r="H89" t="n">
         <v>5800</v>
@@ -7626,7 +7626,7 @@
         <v>55</v>
       </c>
       <c r="G90" t="n">
-        <v>461.294294262948</v>
+        <v>461.30687426258</v>
       </c>
       <c r="H90" t="n">
         <v>5800</v>
@@ -7711,7 +7711,7 @@
         <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>461.294294262948</v>
+        <v>461.30687426258</v>
       </c>
       <c r="H91" t="n">
         <v>5800</v>
@@ -7796,7 +7796,7 @@
         <v>55</v>
       </c>
       <c r="G92" t="n">
-        <v>461.294294262948</v>
+        <v>461.30687426258</v>
       </c>
       <c r="H92" t="n">
         <v>5800</v>
@@ -7958,7 +7958,7 @@
         <v>0.01219</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0191778222657898</v>
+        <v>0.0191810354265841</v>
       </c>
       <c r="H94" t="n">
         <v>0.135008624301486</v>
@@ -8039,7 +8039,7 @@
         <v>0.01219</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0191778222657898</v>
+        <v>0.0191810354265841</v>
       </c>
       <c r="H95" t="n">
         <v>0.135008624301486</v>
@@ -8120,7 +8120,7 @@
         <v>0.13</v>
       </c>
       <c r="G96" t="n">
-        <v>0.145452361337369</v>
+        <v>0.14553762238943</v>
       </c>
       <c r="H96" t="n">
         <v>0.48</v>
@@ -8201,7 +8201,7 @@
         <v>0.13</v>
       </c>
       <c r="G97" t="n">
-        <v>0.145452361337369</v>
+        <v>0.14553762238943</v>
       </c>
       <c r="H97" t="n">
         <v>0.48</v>
@@ -8278,7 +8278,7 @@
         <v>0.1485</v>
       </c>
       <c r="G98" t="n">
-        <v>0.162555555555556</v>
+        <v>0.162537037037037</v>
       </c>
       <c r="H98" t="n">
         <v>0.501</v>
@@ -8295,7 +8295,7 @@
         <v>0.25796</v>
       </c>
       <c r="N98" t="n">
-        <v>0.30606</v>
+        <v>0.30565</v>
       </c>
       <c r="O98" t="n">
         <v>1795602</v>
@@ -8355,7 +8355,7 @@
         <v>0.1485</v>
       </c>
       <c r="G99" t="n">
-        <v>0.162555555555556</v>
+        <v>0.162537037037037</v>
       </c>
       <c r="H99" t="n">
         <v>0.501</v>
@@ -8372,7 +8372,7 @@
         <v>0.25796</v>
       </c>
       <c r="N99" t="n">
-        <v>0.30606</v>
+        <v>0.30565</v>
       </c>
       <c r="O99" t="n">
         <v>1795602</v>
@@ -8517,7 +8517,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0103259305189361</v>
+        <v>0.0103307559899043</v>
       </c>
       <c r="H101" t="n">
         <v>0.04</v>
@@ -8598,7 +8598,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0103259305189361</v>
+        <v>0.0103307559899043</v>
       </c>
       <c r="H102" t="n">
         <v>0.04</v>
@@ -8679,7 +8679,7 @@
         <v>65</v>
       </c>
       <c r="G103" t="n">
-        <v>412.77780710778</v>
+        <v>412.790447518685</v>
       </c>
       <c r="H103" t="n">
         <v>5800</v>
@@ -8764,7 +8764,7 @@
         <v>65</v>
       </c>
       <c r="G104" t="n">
-        <v>412.77780710778</v>
+        <v>412.790447518685</v>
       </c>
       <c r="H104" t="n">
         <v>5800</v>
@@ -8849,7 +8849,7 @@
         <v>65</v>
       </c>
       <c r="G105" t="n">
-        <v>412.77780710778</v>
+        <v>412.790447518685</v>
       </c>
       <c r="H105" t="n">
         <v>5800</v>
@@ -8934,7 +8934,7 @@
         <v>65</v>
       </c>
       <c r="G106" t="n">
-        <v>412.77780710778</v>
+        <v>412.790447518685</v>
       </c>
       <c r="H106" t="n">
         <v>5800</v>
@@ -9096,7 +9096,7 @@
         <v>0.008959999999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>0.014006214173995</v>
+        <v>0.0140042900205909</v>
       </c>
       <c r="H108" t="n">
         <v>0.0516514582734206</v>
@@ -9177,7 +9177,7 @@
         <v>0.008959999999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>0.014006214173995</v>
+        <v>0.0140042900205909</v>
       </c>
       <c r="H109" t="n">
         <v>0.0516514582734206</v>
@@ -9258,7 +9258,7 @@
         <v>0.135</v>
       </c>
       <c r="G110" t="n">
-        <v>0.144320717279138</v>
+        <v>0.144413676636277</v>
       </c>
       <c r="H110" t="n">
         <v>0.48</v>
@@ -9339,7 +9339,7 @@
         <v>0.135</v>
       </c>
       <c r="G111" t="n">
-        <v>0.144320717279138</v>
+        <v>0.144413676636277</v>
       </c>
       <c r="H111" t="n">
         <v>0.48</v>
@@ -9416,13 +9416,13 @@
         <v>0.141</v>
       </c>
       <c r="G112" t="n">
-        <v>0.156903726817125</v>
+        <v>0.156886845867574</v>
       </c>
       <c r="H112" t="n">
         <v>0.501</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3014</v>
+        <v>0.301</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9493,13 +9493,13 @@
         <v>0.141</v>
       </c>
       <c r="G113" t="n">
-        <v>0.156903726817125</v>
+        <v>0.156886845867574</v>
       </c>
       <c r="H113" t="n">
         <v>0.501</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3014</v>
+        <v>0.301</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -9655,7 +9655,7 @@
         <v>0.011</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0113784844036964</v>
+        <v>0.0113846507109476</v>
       </c>
       <c r="H115" t="n">
         <v>0.029</v>
@@ -9736,7 +9736,7 @@
         <v>0.011</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0113784844036964</v>
+        <v>0.0113846507109476</v>
       </c>
       <c r="H116" t="n">
         <v>0.029</v>
@@ -9817,10 +9817,10 @@
         <v>65</v>
       </c>
       <c r="G117" t="n">
-        <v>558.4004550482221</v>
+        <v>542.1471154627041</v>
       </c>
       <c r="H117" t="n">
-        <v>7678.24563672431</v>
+        <v>6783.61673692107</v>
       </c>
       <c r="I117" t="n">
         <v>3875</v>
@@ -9902,10 +9902,10 @@
         <v>65</v>
       </c>
       <c r="G118" t="n">
-        <v>558.4004550482221</v>
+        <v>542.1471154627041</v>
       </c>
       <c r="H118" t="n">
-        <v>7678.24563672431</v>
+        <v>6783.61673692107</v>
       </c>
       <c r="I118" t="n">
         <v>3875</v>
@@ -9987,10 +9987,10 @@
         <v>65</v>
       </c>
       <c r="G119" t="n">
-        <v>558.4004550482221</v>
+        <v>542.1471154627041</v>
       </c>
       <c r="H119" t="n">
-        <v>7678.24563672431</v>
+        <v>6783.61673692107</v>
       </c>
       <c r="I119" t="n">
         <v>3875</v>
@@ -10072,10 +10072,10 @@
         <v>65</v>
       </c>
       <c r="G120" t="n">
-        <v>558.4004550482221</v>
+        <v>542.1471154627041</v>
       </c>
       <c r="H120" t="n">
-        <v>7678.24563672431</v>
+        <v>6783.61673692107</v>
       </c>
       <c r="I120" t="n">
         <v>3875</v>
@@ -10234,7 +10234,7 @@
         <v>0.00648</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0093046745917728</v>
+        <v>0.0092995451481491</v>
       </c>
       <c r="H122" t="n">
         <v>0.0516514582734206</v>
@@ -10315,7 +10315,7 @@
         <v>0.00648</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0093046745917728</v>
+        <v>0.0092995451481491</v>
       </c>
       <c r="H123" t="n">
         <v>0.0516514582734206</v>
@@ -10396,7 +10396,7 @@
         <v>0.145</v>
       </c>
       <c r="G124" t="n">
-        <v>0.157563821789874</v>
+        <v>0.157660356506904</v>
       </c>
       <c r="H124" t="n">
         <v>0.48</v>
@@ -10477,7 +10477,7 @@
         <v>0.145</v>
       </c>
       <c r="G125" t="n">
-        <v>0.157563821789874</v>
+        <v>0.157660356506904</v>
       </c>
       <c r="H125" t="n">
         <v>0.48</v>
@@ -10554,7 +10554,7 @@
         <v>0.152</v>
       </c>
       <c r="G126" t="n">
-        <v>0.165996177848552</v>
+        <v>0.166007493785557</v>
       </c>
       <c r="H126" t="n">
         <v>0.501</v>
@@ -10568,10 +10568,10 @@
         <v>0.09</v>
       </c>
       <c r="M126" t="n">
-        <v>0.27396</v>
+        <v>0.27429</v>
       </c>
       <c r="N126" t="n">
-        <v>0.30368</v>
+        <v>0.30335</v>
       </c>
       <c r="O126" t="n">
         <v>1795602</v>
@@ -10631,7 +10631,7 @@
         <v>0.152</v>
       </c>
       <c r="G127" t="n">
-        <v>0.165996177848552</v>
+        <v>0.166007493785557</v>
       </c>
       <c r="H127" t="n">
         <v>0.501</v>
@@ -10645,10 +10645,10 @@
         <v>0.09</v>
       </c>
       <c r="M127" t="n">
-        <v>0.27396</v>
+        <v>0.27429</v>
       </c>
       <c r="N127" t="n">
-        <v>0.30368</v>
+        <v>0.30335</v>
       </c>
       <c r="O127" t="n">
         <v>1795602</v>
@@ -10793,7 +10793,7 @@
         <v>0.011</v>
       </c>
       <c r="G129" t="n">
-        <v>0.010899295738278</v>
+        <v>0.0109066284163891</v>
       </c>
       <c r="H129" t="n">
         <v>0.029</v>
@@ -10874,7 +10874,7 @@
         <v>0.011</v>
       </c>
       <c r="G130" t="n">
-        <v>0.010899295738278</v>
+        <v>0.0109066284163891</v>
       </c>
       <c r="H130" t="n">
         <v>0.029</v>
@@ -10955,7 +10955,7 @@
         <v>65</v>
       </c>
       <c r="G131" t="n">
-        <v>1269.56876858952</v>
+        <v>1253.88380267529</v>
       </c>
       <c r="H131" t="n">
         <v>43500</v>
@@ -11040,7 +11040,7 @@
         <v>65</v>
       </c>
       <c r="G132" t="n">
-        <v>1269.56876858952</v>
+        <v>1253.88380267529</v>
       </c>
       <c r="H132" t="n">
         <v>43500</v>
@@ -11125,7 +11125,7 @@
         <v>65</v>
       </c>
       <c r="G133" t="n">
-        <v>1269.56876858952</v>
+        <v>1253.88380267529</v>
       </c>
       <c r="H133" t="n">
         <v>43500</v>
@@ -11210,7 +11210,7 @@
         <v>65</v>
       </c>
       <c r="G134" t="n">
-        <v>1269.56876858952</v>
+        <v>1253.88380267529</v>
       </c>
       <c r="H134" t="n">
         <v>43500</v>
@@ -11369,10 +11369,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.00505</v>
+        <v>0.00503</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0075671567418819</v>
+        <v>0.0075624604618013</v>
       </c>
       <c r="H136" t="n">
         <v>0.0516514582734206</v>
@@ -11386,7 +11386,7 @@
         <v>0.00413</v>
       </c>
       <c r="M136" t="n">
-        <v>0.01282</v>
+        <v>0.01279</v>
       </c>
       <c r="N136" t="n">
         <v>0.01744</v>
@@ -11450,10 +11450,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.00505</v>
+        <v>0.00503</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0075671567418819</v>
+        <v>0.0075624604618013</v>
       </c>
       <c r="H137" t="n">
         <v>0.0516514582734206</v>
@@ -11467,7 +11467,7 @@
         <v>0.00413</v>
       </c>
       <c r="M137" t="n">
-        <v>0.01282</v>
+        <v>0.01279</v>
       </c>
       <c r="N137" t="n">
         <v>0.01744</v>
@@ -11534,7 +11534,7 @@
         <v>0.164</v>
       </c>
       <c r="G138" t="n">
-        <v>0.171660866006577</v>
+        <v>0.17171288911308</v>
       </c>
       <c r="H138" t="n">
         <v>0.48</v>
@@ -11615,7 +11615,7 @@
         <v>0.164</v>
       </c>
       <c r="G139" t="n">
-        <v>0.171660866006577</v>
+        <v>0.17171288911308</v>
       </c>
       <c r="H139" t="n">
         <v>0.48</v>
@@ -11692,7 +11692,7 @@
         <v>0.152</v>
       </c>
       <c r="G140" t="n">
-        <v>0.170329652743051</v>
+        <v>0.17035351253424</v>
       </c>
       <c r="H140" t="n">
         <v>0.501</v>
@@ -11706,7 +11706,7 @@
         <v>0.09</v>
       </c>
       <c r="M140" t="n">
-        <v>0.27888</v>
+        <v>0.27922</v>
       </c>
       <c r="N140" t="n">
         <v>0.3295</v>
@@ -11769,7 +11769,7 @@
         <v>0.152</v>
       </c>
       <c r="G141" t="n">
-        <v>0.170329652743051</v>
+        <v>0.17035351253424</v>
       </c>
       <c r="H141" t="n">
         <v>0.501</v>
@@ -11783,7 +11783,7 @@
         <v>0.09</v>
       </c>
       <c r="M141" t="n">
-        <v>0.27888</v>
+        <v>0.27922</v>
       </c>
       <c r="N141" t="n">
         <v>0.3295</v>
@@ -11931,7 +11931,7 @@
         <v>0.008</v>
       </c>
       <c r="G143" t="n">
-        <v>0.009731589260044299</v>
+        <v>0.0097421999296838</v>
       </c>
       <c r="H143" t="n">
         <v>0.029</v>
@@ -12012,7 +12012,7 @@
         <v>0.008</v>
       </c>
       <c r="G144" t="n">
-        <v>0.009731589260044299</v>
+        <v>0.0097421999296838</v>
       </c>
       <c r="H144" t="n">
         <v>0.029</v>
@@ -12093,7 +12093,7 @@
         <v>65</v>
       </c>
       <c r="G145" t="n">
-        <v>1037.07491202717</v>
+        <v>1021.92163987274</v>
       </c>
       <c r="H145" t="n">
         <v>43500</v>
@@ -12178,7 +12178,7 @@
         <v>65</v>
       </c>
       <c r="G146" t="n">
-        <v>1037.07491202717</v>
+        <v>1021.92163987274</v>
       </c>
       <c r="H146" t="n">
         <v>43500</v>
@@ -12263,7 +12263,7 @@
         <v>65</v>
       </c>
       <c r="G147" t="n">
-        <v>1037.07491202717</v>
+        <v>1021.92163987274</v>
       </c>
       <c r="H147" t="n">
         <v>43500</v>
@@ -12348,7 +12348,7 @@
         <v>65</v>
       </c>
       <c r="G148" t="n">
-        <v>1037.07491202717</v>
+        <v>1021.92163987274</v>
       </c>
       <c r="H148" t="n">
         <v>43500</v>
@@ -12510,7 +12510,7 @@
         <v>0.00358</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0064932185703719</v>
+        <v>0.0064961350771104</v>
       </c>
       <c r="H150" t="n">
         <v>0.0516514582734206</v>
@@ -12521,10 +12521,10 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00275</v>
+        <v>0.00284</v>
       </c>
       <c r="M150" t="n">
-        <v>0.01143</v>
+        <v>0.01139</v>
       </c>
       <c r="N150" t="n">
         <v>0.01502</v>
@@ -12591,7 +12591,7 @@
         <v>0.00358</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0064932185703719</v>
+        <v>0.0064961350771104</v>
       </c>
       <c r="H151" t="n">
         <v>0.0516514582734206</v>
@@ -12602,10 +12602,10 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.00275</v>
+        <v>0.00284</v>
       </c>
       <c r="M151" t="n">
-        <v>0.01143</v>
+        <v>0.01139</v>
       </c>
       <c r="N151" t="n">
         <v>0.01502</v>
@@ -12672,7 +12672,7 @@
         <v>0.152</v>
       </c>
       <c r="G152" t="n">
-        <v>0.173234411281341</v>
+        <v>0.173281585282973</v>
       </c>
       <c r="H152" t="n">
         <v>0.48</v>
@@ -12753,7 +12753,7 @@
         <v>0.152</v>
       </c>
       <c r="G153" t="n">
-        <v>0.173234411281341</v>
+        <v>0.173281585282973</v>
       </c>
       <c r="H153" t="n">
         <v>0.48</v>
@@ -12830,7 +12830,7 @@
         <v>0.135</v>
       </c>
       <c r="G154" t="n">
-        <v>0.168870738186337</v>
+        <v>0.168896896884628</v>
       </c>
       <c r="H154" t="n">
         <v>0.501</v>
@@ -12841,7 +12841,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.036</v>
+        <v>0.0365</v>
       </c>
       <c r="M154" t="n">
         <v>0.29075</v>
@@ -12907,7 +12907,7 @@
         <v>0.135</v>
       </c>
       <c r="G155" t="n">
-        <v>0.168870738186337</v>
+        <v>0.168896896884628</v>
       </c>
       <c r="H155" t="n">
         <v>0.501</v>
@@ -12918,7 +12918,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>0.036</v>
+        <v>0.0365</v>
       </c>
       <c r="M155" t="n">
         <v>0.29075</v>
@@ -13223,7 +13223,7 @@
         <v>0.007</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0090221403056128</v>
+        <v>0.009035291181415999</v>
       </c>
       <c r="H159" t="n">
         <v>0.029</v>
@@ -13234,7 +13234,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00264</v>
+        <v>0.00269</v>
       </c>
       <c r="M159" t="n">
         <v>0.017</v>
@@ -13304,7 +13304,7 @@
         <v>0.007</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0090221403056128</v>
+        <v>0.009035291181415999</v>
       </c>
       <c r="H160" t="n">
         <v>0.029</v>
@@ -13315,7 +13315,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00264</v>
+        <v>0.00269</v>
       </c>
       <c r="M160" t="n">
         <v>0.017</v>
@@ -13385,13 +13385,13 @@
         <v>74</v>
       </c>
       <c r="G161" t="n">
-        <v>1174.04017583636</v>
+        <v>1158.87958910437</v>
       </c>
       <c r="H161" t="n">
         <v>43500</v>
       </c>
       <c r="I161" t="n">
-        <v>4556.7</v>
+        <v>4510.83921</v>
       </c>
       <c r="J161" t="n">
         <v>13.5593220338983</v>
@@ -13470,13 +13470,13 @@
         <v>74</v>
       </c>
       <c r="G162" t="n">
-        <v>1174.04017583636</v>
+        <v>1158.87958910437</v>
       </c>
       <c r="H162" t="n">
         <v>43500</v>
       </c>
       <c r="I162" t="n">
-        <v>4556.7</v>
+        <v>4510.83921</v>
       </c>
       <c r="J162" t="n">
         <v>13.5593220338983</v>
@@ -13555,13 +13555,13 @@
         <v>74</v>
       </c>
       <c r="G163" t="n">
-        <v>1174.04017583636</v>
+        <v>1158.87958910437</v>
       </c>
       <c r="H163" t="n">
         <v>43500</v>
       </c>
       <c r="I163" t="n">
-        <v>4556.7</v>
+        <v>4510.83921</v>
       </c>
       <c r="J163" t="n">
         <v>13.5593220338983</v>
@@ -13640,13 +13640,13 @@
         <v>74</v>
       </c>
       <c r="G164" t="n">
-        <v>1174.04017583636</v>
+        <v>1158.87958910437</v>
       </c>
       <c r="H164" t="n">
         <v>43500</v>
       </c>
       <c r="I164" t="n">
-        <v>4556.7</v>
+        <v>4510.83921</v>
       </c>
       <c r="J164" t="n">
         <v>13.5593220338983</v>
@@ -13799,10 +13799,10 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.00287</v>
+        <v>0.00285</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0067345093678664</v>
+        <v>0.0067551366429728</v>
       </c>
       <c r="H166" t="n">
         <v>0.065</v>
@@ -13816,10 +13816,10 @@
         <v>0.00267</v>
       </c>
       <c r="M166" t="n">
-        <v>0.01065</v>
+        <v>0.01061</v>
       </c>
       <c r="N166" t="n">
-        <v>0.01418</v>
+        <v>0.01412</v>
       </c>
       <c r="O166" t="n">
         <v>1795602</v>
@@ -13880,10 +13880,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.00287</v>
+        <v>0.00285</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0067345093678664</v>
+        <v>0.0067551366429728</v>
       </c>
       <c r="H167" t="n">
         <v>0.065</v>
@@ -13897,10 +13897,10 @@
         <v>0.00267</v>
       </c>
       <c r="M167" t="n">
-        <v>0.01065</v>
+        <v>0.01061</v>
       </c>
       <c r="N167" t="n">
-        <v>0.01418</v>
+        <v>0.01412</v>
       </c>
       <c r="O167" t="n">
         <v>1795602</v>
@@ -13964,7 +13964,7 @@
         <v>0.1485</v>
       </c>
       <c r="G168" t="n">
-        <v>0.155018868787497</v>
+        <v>0.155111833836726</v>
       </c>
       <c r="H168" t="n">
         <v>0.359</v>
@@ -14045,7 +14045,7 @@
         <v>0.1485</v>
       </c>
       <c r="G169" t="n">
-        <v>0.155018868787497</v>
+        <v>0.155111833836726</v>
       </c>
       <c r="H169" t="n">
         <v>0.359</v>
@@ -14122,7 +14122,7 @@
         <v>0.135</v>
       </c>
       <c r="G170" t="n">
-        <v>0.156343465459064</v>
+        <v>0.156424169611901</v>
       </c>
       <c r="H170" t="n">
         <v>0.472</v>
@@ -14199,7 +14199,7 @@
         <v>0.135</v>
       </c>
       <c r="G171" t="n">
-        <v>0.156343465459064</v>
+        <v>0.156424169611901</v>
       </c>
       <c r="H171" t="n">
         <v>0.472</v>
@@ -14515,7 +14515,7 @@
         <v>0.006</v>
       </c>
       <c r="G175" t="n">
-        <v>0.00681442932431</v>
+        <v>0.0068309048754291</v>
       </c>
       <c r="H175" t="n">
         <v>0.027</v>
@@ -14526,7 +14526,7 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>0.00317</v>
+        <v>0.0032</v>
       </c>
       <c r="M175" t="n">
         <v>0.011</v>
@@ -14596,7 +14596,7 @@
         <v>0.006</v>
       </c>
       <c r="G176" t="n">
-        <v>0.00681442932431</v>
+        <v>0.0068309048754291</v>
       </c>
       <c r="H176" t="n">
         <v>0.027</v>
@@ -14607,7 +14607,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>0.00317</v>
+        <v>0.0032</v>
       </c>
       <c r="M176" t="n">
         <v>0.011</v>
@@ -14677,13 +14677,13 @@
         <v>79</v>
       </c>
       <c r="G177" t="n">
-        <v>1161.41094299533</v>
+        <v>1146.24774130375</v>
       </c>
       <c r="H177" t="n">
         <v>43500</v>
       </c>
       <c r="I177" t="n">
-        <v>4556.7</v>
+        <v>4510.83921</v>
       </c>
       <c r="J177" t="n">
         <v>11.864406779661</v>
@@ -14762,13 +14762,13 @@
         <v>79</v>
       </c>
       <c r="G178" t="n">
-        <v>1161.41094299533</v>
+        <v>1146.24774130375</v>
       </c>
       <c r="H178" t="n">
         <v>43500</v>
       </c>
       <c r="I178" t="n">
-        <v>4556.7</v>
+        <v>4510.83921</v>
       </c>
       <c r="J178" t="n">
         <v>11.864406779661</v>
@@ -14847,13 +14847,13 @@
         <v>79</v>
       </c>
       <c r="G179" t="n">
-        <v>1161.41094299533</v>
+        <v>1146.24774130375</v>
       </c>
       <c r="H179" t="n">
         <v>43500</v>
       </c>
       <c r="I179" t="n">
-        <v>4556.7</v>
+        <v>4510.83921</v>
       </c>
       <c r="J179" t="n">
         <v>11.864406779661</v>
@@ -14932,13 +14932,13 @@
         <v>79</v>
       </c>
       <c r="G180" t="n">
-        <v>1161.41094299533</v>
+        <v>1146.24774130375</v>
       </c>
       <c r="H180" t="n">
         <v>43500</v>
       </c>
       <c r="I180" t="n">
-        <v>4556.7</v>
+        <v>4510.83921</v>
       </c>
       <c r="J180" t="n">
         <v>11.864406779661</v>
@@ -15091,10 +15091,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.00332</v>
+        <v>0.00333</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0059882213846784</v>
+        <v>0.0060134393842332</v>
       </c>
       <c r="H182" t="n">
         <v>0.065</v>
@@ -15105,7 +15105,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.00275</v>
+        <v>0.00284</v>
       </c>
       <c r="M182" t="n">
         <v>0.00903</v>
@@ -15172,10 +15172,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00332</v>
+        <v>0.00333</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0059882213846784</v>
+        <v>0.0060134393842332</v>
       </c>
       <c r="H183" t="n">
         <v>0.065</v>
@@ -15186,7 +15186,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.00275</v>
+        <v>0.00284</v>
       </c>
       <c r="M183" t="n">
         <v>0.00903</v>
@@ -15256,7 +15256,7 @@
         <v>0.1685</v>
       </c>
       <c r="G184" t="n">
-        <v>0.160080388325042</v>
+        <v>0.160140840961427</v>
       </c>
       <c r="H184" t="n">
         <v>0.36</v>
@@ -15337,7 +15337,7 @@
         <v>0.1685</v>
       </c>
       <c r="G185" t="n">
-        <v>0.160080388325042</v>
+        <v>0.160140840961427</v>
       </c>
       <c r="H185" t="n">
         <v>0.36</v>
@@ -15414,7 +15414,7 @@
         <v>0.135</v>
       </c>
       <c r="G186" t="n">
-        <v>0.160457707931996</v>
+        <v>0.160534028979045</v>
       </c>
       <c r="H186" t="n">
         <v>0.472</v>
@@ -15491,7 +15491,7 @@
         <v>0.135</v>
       </c>
       <c r="G187" t="n">
-        <v>0.160457707931996</v>
+        <v>0.160534028979045</v>
       </c>
       <c r="H187" t="n">
         <v>0.472</v>
@@ -15568,7 +15568,7 @@
         <v>0.25</v>
       </c>
       <c r="G188" t="n">
-        <v>0.333877688406116</v>
+        <v>0.333904456210503</v>
       </c>
       <c r="H188" t="n">
         <v>1.605</v>
@@ -15645,7 +15645,7 @@
         <v>0.25</v>
       </c>
       <c r="G189" t="n">
-        <v>0.333877688406116</v>
+        <v>0.333904456210503</v>
       </c>
       <c r="H189" t="n">
         <v>1.605</v>
@@ -15961,7 +15961,7 @@
         <v>0.006</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0059342240306371</v>
+        <v>0.0059495959344987</v>
       </c>
       <c r="H193" t="n">
         <v>0.021</v>
@@ -15972,7 +15972,7 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>0.00332</v>
+        <v>0.00336</v>
       </c>
       <c r="M193" t="n">
         <v>0.008</v>
@@ -16042,7 +16042,7 @@
         <v>0.006</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0059342240306371</v>
+        <v>0.0059495959344987</v>
       </c>
       <c r="H194" t="n">
         <v>0.021</v>
@@ -16053,7 +16053,7 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
-        <v>0.00332</v>
+        <v>0.00336</v>
       </c>
       <c r="M194" t="n">
         <v>0.008</v>
@@ -16537,10 +16537,10 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.00385</v>
+        <v>0.00384</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0062343957952223</v>
+        <v>0.0062610014894995</v>
       </c>
       <c r="H200" t="n">
         <v>0.065</v>
@@ -16551,7 +16551,7 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>0.00401</v>
+        <v>0.004</v>
       </c>
       <c r="M200" t="n">
         <v>0.008750000000000001</v>
@@ -16618,10 +16618,10 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.00385</v>
+        <v>0.00384</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0062343957952223</v>
+        <v>0.0062610014894995</v>
       </c>
       <c r="H201" t="n">
         <v>0.065</v>
@@ -16632,7 +16632,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>0.00401</v>
+        <v>0.004</v>
       </c>
       <c r="M201" t="n">
         <v>0.008750000000000001</v>
@@ -16702,7 +16702,7 @@
         <v>0.1485</v>
       </c>
       <c r="G202" t="n">
-        <v>0.15452636890879</v>
+        <v>0.154583798913355</v>
       </c>
       <c r="H202" t="n">
         <v>0.437</v>
@@ -16783,7 +16783,7 @@
         <v>0.1485</v>
       </c>
       <c r="G203" t="n">
-        <v>0.15452636890879</v>
+        <v>0.154583798913355</v>
       </c>
       <c r="H203" t="n">
         <v>0.437</v>
@@ -16860,7 +16860,7 @@
         <v>0.129</v>
       </c>
       <c r="G204" t="n">
-        <v>0.157679480544471</v>
+        <v>0.15773626528484</v>
       </c>
       <c r="H204" t="n">
         <v>0.472</v>
@@ -16871,7 +16871,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.0305</v>
+        <v>0.03075</v>
       </c>
       <c r="M204" t="n">
         <v>0.28594</v>
@@ -16937,7 +16937,7 @@
         <v>0.129</v>
       </c>
       <c r="G205" t="n">
-        <v>0.157679480544471</v>
+        <v>0.15773626528484</v>
       </c>
       <c r="H205" t="n">
         <v>0.472</v>
@@ -16948,7 +16948,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.0305</v>
+        <v>0.03075</v>
       </c>
       <c r="M205" t="n">
         <v>0.28594</v>
@@ -17014,7 +17014,7 @@
         <v>0.27</v>
       </c>
       <c r="G206" t="n">
-        <v>0.341169970155061</v>
+        <v>0.341195830576249</v>
       </c>
       <c r="H206" t="n">
         <v>1.605</v>
@@ -17091,7 +17091,7 @@
         <v>0.27</v>
       </c>
       <c r="G207" t="n">
-        <v>0.341169970155061</v>
+        <v>0.341195830576249</v>
       </c>
       <c r="H207" t="n">
         <v>1.605</v>
@@ -17168,7 +17168,7 @@
         <v>0.019</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0458071716321327</v>
+        <v>0.0458070453352483</v>
       </c>
       <c r="H208" t="n">
         <v>0.495</v>
@@ -17245,7 +17245,7 @@
         <v>0.019</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0458071716321327</v>
+        <v>0.0458070453352483</v>
       </c>
       <c r="H209" t="n">
         <v>0.495</v>
@@ -17407,7 +17407,7 @@
         <v>0.006</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0075637640546025</v>
+        <v>0.0075762532872464</v>
       </c>
       <c r="H211" t="n">
         <v>0.027</v>
@@ -17488,7 +17488,7 @@
         <v>0.006</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0075637640546025</v>
+        <v>0.0075762532872464</v>
       </c>
       <c r="H212" t="n">
         <v>0.027</v>
@@ -17983,10 +17983,10 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0.0039</v>
+        <v>0.00387</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0065521082018301</v>
+        <v>0.0065792398394473</v>
       </c>
       <c r="H218" t="n">
         <v>0.065</v>
@@ -17997,7 +17997,7 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>0.00344</v>
+        <v>0.00349</v>
       </c>
       <c r="M218" t="n">
         <v>0.00961</v>
@@ -18064,10 +18064,10 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0.0039</v>
+        <v>0.00387</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0065521082018301</v>
+        <v>0.0065792398394473</v>
       </c>
       <c r="H219" t="n">
         <v>0.065</v>
@@ -18078,7 +18078,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
-        <v>0.00344</v>
+        <v>0.00349</v>
       </c>
       <c r="M219" t="n">
         <v>0.00961</v>
@@ -18148,7 +18148,7 @@
         <v>0.12</v>
       </c>
       <c r="G220" t="n">
-        <v>0.151478668496971</v>
+        <v>0.151525550133351</v>
       </c>
       <c r="H220" t="n">
         <v>0.5688</v>
@@ -18229,7 +18229,7 @@
         <v>0.12</v>
       </c>
       <c r="G221" t="n">
-        <v>0.151478668496971</v>
+        <v>0.151525550133351</v>
       </c>
       <c r="H221" t="n">
         <v>0.5688</v>
@@ -18303,13 +18303,13 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0.122</v>
+        <v>0.1215</v>
       </c>
       <c r="G222" t="n">
-        <v>0.161747277154641</v>
+        <v>0.161826095793315</v>
       </c>
       <c r="H222" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I222" t="n">
         <v>0.46105</v>
@@ -18317,7 +18317,7 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
-        <v>0.0305</v>
+        <v>0.03075</v>
       </c>
       <c r="M222" t="n">
         <v>0.29788</v>
@@ -18380,13 +18380,13 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0.122</v>
+        <v>0.1215</v>
       </c>
       <c r="G223" t="n">
-        <v>0.161747277154641</v>
+        <v>0.161826095793315</v>
       </c>
       <c r="H223" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I223" t="n">
         <v>0.46105</v>
@@ -18394,7 +18394,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
-        <v>0.0305</v>
+        <v>0.03075</v>
       </c>
       <c r="M223" t="n">
         <v>0.29788</v>
@@ -18460,7 +18460,7 @@
         <v>0.28</v>
       </c>
       <c r="G224" t="n">
-        <v>0.340254715917773</v>
+        <v>0.340280576338961</v>
       </c>
       <c r="H224" t="n">
         <v>1.605</v>
@@ -18537,7 +18537,7 @@
         <v>0.28</v>
       </c>
       <c r="G225" t="n">
-        <v>0.340254715917773</v>
+        <v>0.340280576338961</v>
       </c>
       <c r="H225" t="n">
         <v>1.605</v>
@@ -18614,7 +18614,7 @@
         <v>0.021</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0438919173948445</v>
+        <v>0.0438917910979602</v>
       </c>
       <c r="H226" t="n">
         <v>0.495</v>
@@ -18691,7 +18691,7 @@
         <v>0.021</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0438919173948445</v>
+        <v>0.0438917910979602</v>
       </c>
       <c r="H227" t="n">
         <v>0.495</v>
@@ -18849,13 +18849,13 @@
         <v>1.47</v>
       </c>
       <c r="G229" t="n">
-        <v>1.71081146922125</v>
+        <v>1.77560586407169</v>
       </c>
       <c r="H229" t="n">
         <v>10.73</v>
       </c>
       <c r="I229" t="n">
-        <v>3.88088</v>
+        <v>4.44112</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18866,7 +18866,7 @@
         <v>2.119</v>
       </c>
       <c r="N229" t="n">
-        <v>2.62897</v>
+        <v>3.90196</v>
       </c>
       <c r="O229" t="n">
         <v>1795602</v>
@@ -18930,7 +18930,7 @@
         <v>0.008</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0113658752506122</v>
+        <v>0.0113751844457617</v>
       </c>
       <c r="H230" t="n">
         <v>0.117</v>
@@ -19011,7 +19011,7 @@
         <v>0.008</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0113658752506122</v>
+        <v>0.0113751844457617</v>
       </c>
       <c r="H231" t="n">
         <v>0.117</v>
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0.00388</v>
+        <v>0.00386</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0066670377067337</v>
+        <v>0.0066855175515495</v>
       </c>
       <c r="H237" t="n">
         <v>0.065</v>
@@ -19520,7 +19520,7 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>0.00422</v>
+        <v>0.00421</v>
       </c>
       <c r="M237" t="n">
         <v>0.00966</v>
@@ -19587,10 +19587,10 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0.00388</v>
+        <v>0.00386</v>
       </c>
       <c r="G238" t="n">
-        <v>0.0066670377067337</v>
+        <v>0.0066855175515495</v>
       </c>
       <c r="H238" t="n">
         <v>0.065</v>
@@ -19601,7 +19601,7 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
-        <v>0.00422</v>
+        <v>0.00421</v>
       </c>
       <c r="M238" t="n">
         <v>0.00966</v>
@@ -19671,7 +19671,7 @@
         <v>0.107</v>
       </c>
       <c r="G239" t="n">
-        <v>0.147733131463586</v>
+        <v>0.147772067059902</v>
       </c>
       <c r="H239" t="n">
         <v>0.5688</v>
@@ -19682,7 +19682,7 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>0.01499</v>
+        <v>0.01527</v>
       </c>
       <c r="M239" t="n">
         <v>0.27735</v>
@@ -19752,7 +19752,7 @@
         <v>0.107</v>
       </c>
       <c r="G240" t="n">
-        <v>0.147733131463586</v>
+        <v>0.147772067059902</v>
       </c>
       <c r="H240" t="n">
         <v>0.5688</v>
@@ -19763,7 +19763,7 @@
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
-        <v>0.01499</v>
+        <v>0.01527</v>
       </c>
       <c r="M240" t="n">
         <v>0.27735</v>
@@ -19906,10 +19906,10 @@
         <v>0.11</v>
       </c>
       <c r="G242" t="n">
-        <v>0.156389830508475</v>
+        <v>0.156440677966102</v>
       </c>
       <c r="H242" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I242" t="n">
         <v>0.3951</v>
@@ -19920,7 +19920,7 @@
         <v>0.0235</v>
       </c>
       <c r="M242" t="n">
-        <v>0.28841</v>
+        <v>0.28822</v>
       </c>
       <c r="N242" t="n">
         <v>0.35614</v>
@@ -19983,10 +19983,10 @@
         <v>0.11</v>
       </c>
       <c r="G243" t="n">
-        <v>0.156389830508475</v>
+        <v>0.156440677966102</v>
       </c>
       <c r="H243" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I243" t="n">
         <v>0.3951</v>
@@ -19997,7 +19997,7 @@
         <v>0.0235</v>
       </c>
       <c r="M243" t="n">
-        <v>0.28841</v>
+        <v>0.28822</v>
       </c>
       <c r="N243" t="n">
         <v>0.35614</v>
@@ -20214,7 +20214,7 @@
         <v>0.02</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0425698834965394</v>
+        <v>0.0425697571996551</v>
       </c>
       <c r="H246" t="n">
         <v>0.495</v>
@@ -20291,7 +20291,7 @@
         <v>0.02</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0425698834965394</v>
+        <v>0.0425697571996551</v>
       </c>
       <c r="H247" t="n">
         <v>0.495</v>
@@ -20449,13 +20449,13 @@
         <v>1.6</v>
       </c>
       <c r="G249" t="n">
-        <v>1.99077540392253</v>
+        <v>2.05269004789072</v>
       </c>
       <c r="H249" t="n">
         <v>10.73</v>
       </c>
       <c r="I249" t="n">
-        <v>5.29</v>
+        <v>5.41026</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -20463,10 +20463,10 @@
         <v>1.8</v>
       </c>
       <c r="M249" t="n">
-        <v>2.54518</v>
+        <v>2.585</v>
       </c>
       <c r="N249" t="n">
-        <v>3.98167</v>
+        <v>4.99</v>
       </c>
       <c r="O249" t="n">
         <v>1795602</v>
@@ -20530,7 +20530,7 @@
         <v>0.01</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0164037297782946</v>
+        <v>0.0164099422759849</v>
       </c>
       <c r="H250" t="n">
         <v>0.138</v>
@@ -20611,7 +20611,7 @@
         <v>0.01</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0164037297782946</v>
+        <v>0.0164099422759849</v>
       </c>
       <c r="H251" t="n">
         <v>0.138</v>
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0.00316</v>
+        <v>0.00314</v>
       </c>
       <c r="G257" t="n">
-        <v>0.0047958117406677</v>
+        <v>0.0047924222631129</v>
       </c>
       <c r="H257" t="n">
         <v>0.0232719579517891</v>
@@ -21120,7 +21120,7 @@
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
-        <v>0.0031</v>
+        <v>0.00309</v>
       </c>
       <c r="M257" t="n">
         <v>0.007889999999999999</v>
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>0.00316</v>
+        <v>0.00314</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0047958117406677</v>
+        <v>0.0047924222631129</v>
       </c>
       <c r="H258" t="n">
         <v>0.0232719579517891</v>
@@ -21201,7 +21201,7 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
-        <v>0.0031</v>
+        <v>0.00309</v>
       </c>
       <c r="M258" t="n">
         <v>0.007889999999999999</v>
@@ -21271,7 +21271,7 @@
         <v>0.1135</v>
       </c>
       <c r="G259" t="n">
-        <v>0.14787182702623</v>
+        <v>0.147889087436792</v>
       </c>
       <c r="H259" t="n">
         <v>0.5688</v>
@@ -21352,7 +21352,7 @@
         <v>0.1135</v>
       </c>
       <c r="G260" t="n">
-        <v>0.14787182702623</v>
+        <v>0.147889087436792</v>
       </c>
       <c r="H260" t="n">
         <v>0.5688</v>
@@ -21506,10 +21506,10 @@
         <v>0.1195</v>
       </c>
       <c r="G262" t="n">
-        <v>0.156833333333333</v>
+        <v>0.156843333333333</v>
       </c>
       <c r="H262" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I262" t="n">
         <v>0.393</v>
@@ -21517,13 +21517,13 @@
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
-        <v>0.0185</v>
+        <v>0.01865</v>
       </c>
       <c r="M262" t="n">
-        <v>0.2879</v>
+        <v>0.28778</v>
       </c>
       <c r="N262" t="n">
-        <v>0.3265</v>
+        <v>0.32654</v>
       </c>
       <c r="O262" t="n">
         <v>1795602</v>
@@ -21583,10 +21583,10 @@
         <v>0.1195</v>
       </c>
       <c r="G263" t="n">
-        <v>0.156833333333333</v>
+        <v>0.156843333333333</v>
       </c>
       <c r="H263" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I263" t="n">
         <v>0.393</v>
@@ -21594,13 +21594,13 @@
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
-        <v>0.0185</v>
+        <v>0.01865</v>
       </c>
       <c r="M263" t="n">
-        <v>0.2879</v>
+        <v>0.28778</v>
       </c>
       <c r="N263" t="n">
-        <v>0.3265</v>
+        <v>0.32654</v>
       </c>
       <c r="O263" t="n">
         <v>1795602</v>
@@ -21814,7 +21814,7 @@
         <v>0.019</v>
       </c>
       <c r="G266" t="n">
-        <v>0.0307877187715971</v>
+        <v>0.0307875945796608</v>
       </c>
       <c r="H266" t="n">
         <v>0.32</v>
@@ -21891,7 +21891,7 @@
         <v>0.019</v>
       </c>
       <c r="G267" t="n">
-        <v>0.0307877187715971</v>
+        <v>0.0307875945796608</v>
       </c>
       <c r="H267" t="n">
         <v>0.32</v>
@@ -22049,13 +22049,13 @@
         <v>1.6</v>
       </c>
       <c r="G269" t="n">
-        <v>1.80879705479637</v>
+        <v>1.86427220730987</v>
       </c>
       <c r="H269" t="n">
         <v>5.86</v>
       </c>
       <c r="I269" t="n">
-        <v>4.76</v>
+        <v>5.1</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -22063,10 +22063,10 @@
         <v>1.65</v>
       </c>
       <c r="M269" t="n">
-        <v>2.55315</v>
+        <v>2.6</v>
       </c>
       <c r="N269" t="n">
-        <v>4.275</v>
+        <v>4.655</v>
       </c>
       <c r="O269" t="n">
         <v>1795602</v>
@@ -22130,7 +22130,7 @@
         <v>0.0125</v>
       </c>
       <c r="G270" t="n">
-        <v>0.0597676777622503</v>
+        <v>0.0597696378879447</v>
       </c>
       <c r="H270" t="n">
         <v>2.37</v>
@@ -22211,7 +22211,7 @@
         <v>0.0125</v>
       </c>
       <c r="G271" t="n">
-        <v>0.0597676777622503</v>
+        <v>0.0597696378879447</v>
       </c>
       <c r="H271" t="n">
         <v>2.37</v>
@@ -22709,7 +22709,7 @@
         <v>0.00322</v>
       </c>
       <c r="G277" t="n">
-        <v>0.0049949466062903</v>
+        <v>0.0049895207505321</v>
       </c>
       <c r="H277" t="n">
         <v>0.0394192394065602</v>
@@ -22723,7 +22723,7 @@
         <v>0.00301</v>
       </c>
       <c r="M277" t="n">
-        <v>0.0075</v>
+        <v>0.00748</v>
       </c>
       <c r="N277" t="n">
         <v>0.009939999999999999</v>
@@ -22790,7 +22790,7 @@
         <v>0.00322</v>
       </c>
       <c r="G278" t="n">
-        <v>0.0049949466062903</v>
+        <v>0.0049895207505321</v>
       </c>
       <c r="H278" t="n">
         <v>0.0394192394065602</v>
@@ -22804,7 +22804,7 @@
         <v>0.00301</v>
       </c>
       <c r="M278" t="n">
-        <v>0.0075</v>
+        <v>0.00748</v>
       </c>
       <c r="N278" t="n">
         <v>0.009939999999999999</v>
@@ -22871,7 +22871,7 @@
         <v>0.1135</v>
       </c>
       <c r="G279" t="n">
-        <v>0.153855160359564</v>
+        <v>0.153872420770126</v>
       </c>
       <c r="H279" t="n">
         <v>0.5688</v>
@@ -22952,7 +22952,7 @@
         <v>0.1135</v>
       </c>
       <c r="G280" t="n">
-        <v>0.153855160359564</v>
+        <v>0.153872420770126</v>
       </c>
       <c r="H280" t="n">
         <v>0.5688</v>
@@ -23106,10 +23106,10 @@
         <v>0.1195</v>
       </c>
       <c r="G282" t="n">
-        <v>0.163783333333333</v>
+        <v>0.163793333333333</v>
       </c>
       <c r="H282" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I282" t="n">
         <v>0.45</v>
@@ -23117,13 +23117,13 @@
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
-        <v>0.022</v>
+        <v>0.0221</v>
       </c>
       <c r="M282" t="n">
-        <v>0.2987</v>
+        <v>0.29882</v>
       </c>
       <c r="N282" t="n">
-        <v>0.3891</v>
+        <v>0.38913</v>
       </c>
       <c r="O282" t="n">
         <v>1795602</v>
@@ -23183,10 +23183,10 @@
         <v>0.1195</v>
       </c>
       <c r="G283" t="n">
-        <v>0.163783333333333</v>
+        <v>0.163793333333333</v>
       </c>
       <c r="H283" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I283" t="n">
         <v>0.45</v>
@@ -23194,13 +23194,13 @@
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
-        <v>0.022</v>
+        <v>0.0221</v>
       </c>
       <c r="M283" t="n">
-        <v>0.2987</v>
+        <v>0.29882</v>
       </c>
       <c r="N283" t="n">
-        <v>0.3891</v>
+        <v>0.38913</v>
       </c>
       <c r="O283" t="n">
         <v>1795602</v>
@@ -23414,7 +23414,7 @@
         <v>0.021</v>
       </c>
       <c r="G286" t="n">
-        <v>0.0300710521049305</v>
+        <v>0.0300709279129942</v>
       </c>
       <c r="H286" t="n">
         <v>0.19</v>
@@ -23491,7 +23491,7 @@
         <v>0.021</v>
       </c>
       <c r="G287" t="n">
-        <v>0.0300710521049305</v>
+        <v>0.0300709279129942</v>
       </c>
       <c r="H287" t="n">
         <v>0.19</v>
@@ -23649,13 +23649,13 @@
         <v>1.485</v>
       </c>
       <c r="G289" t="n">
-        <v>1.7392279373042</v>
+        <v>1.79256943010564</v>
       </c>
       <c r="H289" t="n">
         <v>5.86</v>
       </c>
       <c r="I289" t="n">
-        <v>4.739</v>
+        <v>5.066</v>
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
@@ -23663,10 +23663,10 @@
         <v>1.5</v>
       </c>
       <c r="M289" t="n">
-        <v>2.54868</v>
+        <v>2.5796</v>
       </c>
       <c r="N289" t="n">
-        <v>4.187</v>
+        <v>4.6214</v>
       </c>
       <c r="O289" t="n">
         <v>1795602</v>
@@ -23730,7 +23730,7 @@
         <v>0.014</v>
       </c>
       <c r="G290" t="n">
-        <v>0.061467243783037</v>
+        <v>0.0614675452279592</v>
       </c>
       <c r="H290" t="n">
         <v>2.37</v>
@@ -23811,7 +23811,7 @@
         <v>0.014</v>
       </c>
       <c r="G291" t="n">
-        <v>0.061467243783037</v>
+        <v>0.0614675452279592</v>
       </c>
       <c r="H291" t="n">
         <v>2.37</v>
@@ -24309,7 +24309,7 @@
         <v>0.00322</v>
       </c>
       <c r="G297" t="n">
-        <v>0.0044489959478706</v>
+        <v>0.0044415009407881</v>
       </c>
       <c r="H297" t="n">
         <v>0.0394192394065602</v>
@@ -24323,10 +24323,10 @@
         <v>0.00301</v>
       </c>
       <c r="M297" t="n">
-        <v>0.00492</v>
+        <v>0.00491</v>
       </c>
       <c r="N297" t="n">
-        <v>0.008359999999999999</v>
+        <v>0.00834</v>
       </c>
       <c r="O297" t="n">
         <v>1795602</v>
@@ -24390,7 +24390,7 @@
         <v>0.00322</v>
       </c>
       <c r="G298" t="n">
-        <v>0.0044489959478706</v>
+        <v>0.0044415009407881</v>
       </c>
       <c r="H298" t="n">
         <v>0.0394192394065602</v>
@@ -24404,10 +24404,10 @@
         <v>0.00301</v>
       </c>
       <c r="M298" t="n">
-        <v>0.00492</v>
+        <v>0.00491</v>
       </c>
       <c r="N298" t="n">
-        <v>0.008359999999999999</v>
+        <v>0.00834</v>
       </c>
       <c r="O298" t="n">
         <v>1795602</v>
@@ -24471,7 +24471,7 @@
         <v>0.123</v>
       </c>
       <c r="G299" t="n">
-        <v>0.16152182702623</v>
+        <v>0.161539087436792</v>
       </c>
       <c r="H299" t="n">
         <v>0.5688</v>
@@ -24552,7 +24552,7 @@
         <v>0.123</v>
       </c>
       <c r="G300" t="n">
-        <v>0.16152182702623</v>
+        <v>0.161539087436792</v>
       </c>
       <c r="H300" t="n">
         <v>0.5688</v>
@@ -24706,10 +24706,10 @@
         <v>0.128</v>
       </c>
       <c r="G302" t="n">
-        <v>0.1707</v>
+        <v>0.17071</v>
       </c>
       <c r="H302" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I302" t="n">
         <v>0.4295</v>
@@ -24717,7 +24717,7 @@
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
-        <v>0.022</v>
+        <v>0.0221</v>
       </c>
       <c r="M302" t="n">
         <v>0.3115</v>
@@ -24783,10 +24783,10 @@
         <v>0.128</v>
       </c>
       <c r="G303" t="n">
-        <v>0.1707</v>
+        <v>0.17071</v>
       </c>
       <c r="H303" t="n">
-        <v>0.573</v>
+        <v>0.5727</v>
       </c>
       <c r="I303" t="n">
         <v>0.4295</v>
@@ -24794,7 +24794,7 @@
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
-        <v>0.022</v>
+        <v>0.0221</v>
       </c>
       <c r="M303" t="n">
         <v>0.3115</v>
@@ -25249,13 +25249,13 @@
         <v>1.425</v>
       </c>
       <c r="G309" t="n">
-        <v>1.70238200639749</v>
+        <v>1.75348028511228</v>
       </c>
       <c r="H309" t="n">
         <v>5.86</v>
       </c>
       <c r="I309" t="n">
-        <v>4.718</v>
+        <v>5.032</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -25263,10 +25263,10 @@
         <v>1.8</v>
       </c>
       <c r="M309" t="n">
-        <v>2.54421</v>
+        <v>2.5592</v>
       </c>
       <c r="N309" t="n">
-        <v>4.099</v>
+        <v>4.5878</v>
       </c>
       <c r="O309" t="n">
         <v>1795602</v>
@@ -25492,7 +25492,7 @@
         <v>91</v>
       </c>
       <c r="G312" t="n">
-        <v>465.467885051684</v>
+        <v>465.469738948423</v>
       </c>
       <c r="H312" t="n">
         <v>7900</v>
@@ -25577,7 +25577,7 @@
         <v>91</v>
       </c>
       <c r="G313" t="n">
-        <v>465.467885051684</v>
+        <v>465.469738948423</v>
       </c>
       <c r="H313" t="n">
         <v>7900</v>
@@ -25662,7 +25662,7 @@
         <v>91</v>
       </c>
       <c r="G314" t="n">
-        <v>465.467885051684</v>
+        <v>465.469738948423</v>
       </c>
       <c r="H314" t="n">
         <v>7900</v>
@@ -25747,7 +25747,7 @@
         <v>91</v>
       </c>
       <c r="G315" t="n">
-        <v>465.467885051684</v>
+        <v>465.469738948423</v>
       </c>
       <c r="H315" t="n">
         <v>7900</v>
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0.00338</v>
+        <v>0.00337</v>
       </c>
       <c r="G317" t="n">
-        <v>0.0047102802638728</v>
+        <v>0.0047023779212124</v>
       </c>
       <c r="H317" t="n">
         <v>0.0394192394065602</v>
@@ -25926,7 +25926,7 @@
         <v>0.0053</v>
       </c>
       <c r="N317" t="n">
-        <v>0.00842</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="O317" t="n">
         <v>1795602</v>
@@ -25987,10 +25987,10 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0.00338</v>
+        <v>0.00337</v>
       </c>
       <c r="G318" t="n">
-        <v>0.0047102802638728</v>
+        <v>0.0047023779212124</v>
       </c>
       <c r="H318" t="n">
         <v>0.0394192394065602</v>
@@ -26007,7 +26007,7 @@
         <v>0.0053</v>
       </c>
       <c r="N318" t="n">
-        <v>0.00842</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="O318" t="n">
         <v>1795602</v>
@@ -26071,7 +26071,7 @@
         <v>0.1425</v>
       </c>
       <c r="G319" t="n">
-        <v>0.17478182702623</v>
+        <v>0.174799087436792</v>
       </c>
       <c r="H319" t="n">
         <v>0.44</v>
@@ -26152,7 +26152,7 @@
         <v>0.1425</v>
       </c>
       <c r="G320" t="n">
-        <v>0.17478182702623</v>
+        <v>0.174799087436792</v>
       </c>
       <c r="H320" t="n">
         <v>0.44</v>
@@ -26303,10 +26303,10 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0.1515</v>
+        <v>0.15165</v>
       </c>
       <c r="G322" t="n">
-        <v>0.184733333333333</v>
+        <v>0.184726666666667</v>
       </c>
       <c r="H322" t="n">
         <v>0.46</v>
@@ -26320,7 +26320,7 @@
         <v>0.045</v>
       </c>
       <c r="M322" t="n">
-        <v>0.3352</v>
+        <v>0.33527</v>
       </c>
       <c r="N322" t="n">
         <v>0.4035</v>
@@ -26380,10 +26380,10 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0.1515</v>
+        <v>0.15165</v>
       </c>
       <c r="G323" t="n">
-        <v>0.184733333333333</v>
+        <v>0.184726666666667</v>
       </c>
       <c r="H323" t="n">
         <v>0.46</v>
@@ -26397,7 +26397,7 @@
         <v>0.045</v>
       </c>
       <c r="M323" t="n">
-        <v>0.3352</v>
+        <v>0.33527</v>
       </c>
       <c r="N323" t="n">
         <v>0.4035</v>
@@ -26849,7 +26849,7 @@
         <v>1.3</v>
       </c>
       <c r="G329" t="n">
-        <v>1.53658873167713</v>
+        <v>1.53613361425391</v>
       </c>
       <c r="H329" t="n">
         <v>5.86</v>
@@ -27092,7 +27092,7 @@
         <v>100</v>
       </c>
       <c r="G332" t="n">
-        <v>488.552630814396</v>
+        <v>488.554484711135</v>
       </c>
       <c r="H332" t="n">
         <v>7900</v>
@@ -27177,7 +27177,7 @@
         <v>100</v>
       </c>
       <c r="G333" t="n">
-        <v>488.552630814396</v>
+        <v>488.554484711135</v>
       </c>
       <c r="H333" t="n">
         <v>7900</v>
@@ -27262,7 +27262,7 @@
         <v>100</v>
       </c>
       <c r="G334" t="n">
-        <v>488.552630814396</v>
+        <v>488.554484711135</v>
       </c>
       <c r="H334" t="n">
         <v>7900</v>
@@ -27347,7 +27347,7 @@
         <v>100</v>
       </c>
       <c r="G335" t="n">
-        <v>488.552630814396</v>
+        <v>488.554484711135</v>
       </c>
       <c r="H335" t="n">
         <v>7900</v>
@@ -27509,7 +27509,7 @@
         <v>0.00409</v>
       </c>
       <c r="G337" t="n">
-        <v>0.0054046856250879</v>
+        <v>0.005398529869548</v>
       </c>
       <c r="H337" t="n">
         <v>0.0394192394065602</v>
@@ -27520,13 +27520,13 @@
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
-        <v>0.00441</v>
+        <v>0.0044</v>
       </c>
       <c r="M337" t="n">
-        <v>0.00681</v>
+        <v>0.0068</v>
       </c>
       <c r="N337" t="n">
-        <v>0.01133</v>
+        <v>0.01135</v>
       </c>
       <c r="O337" t="n">
         <v>1795602</v>
@@ -27590,7 +27590,7 @@
         <v>0.00409</v>
       </c>
       <c r="G338" t="n">
-        <v>0.0054046856250879</v>
+        <v>0.005398529869548</v>
       </c>
       <c r="H338" t="n">
         <v>0.0394192394065602</v>
@@ -27601,13 +27601,13 @@
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
-        <v>0.00441</v>
+        <v>0.0044</v>
       </c>
       <c r="M338" t="n">
-        <v>0.00681</v>
+        <v>0.0068</v>
       </c>
       <c r="N338" t="n">
-        <v>0.01133</v>
+        <v>0.01135</v>
       </c>
       <c r="O338" t="n">
         <v>1795602</v>
@@ -27671,7 +27671,7 @@
         <v>0.138</v>
       </c>
       <c r="G339" t="n">
-        <v>0.177949215200932</v>
+        <v>0.177981554572915</v>
       </c>
       <c r="H339" t="n">
         <v>0.44</v>
@@ -27752,7 +27752,7 @@
         <v>0.138</v>
       </c>
       <c r="G340" t="n">
-        <v>0.177949215200932</v>
+        <v>0.177981554572915</v>
       </c>
       <c r="H340" t="n">
         <v>0.44</v>
@@ -27906,7 +27906,7 @@
         <v>0.1525</v>
       </c>
       <c r="G342" t="n">
-        <v>0.1888</v>
+        <v>0.188801666666667</v>
       </c>
       <c r="H342" t="n">
         <v>0.46</v>
@@ -27983,7 +27983,7 @@
         <v>0.1525</v>
       </c>
       <c r="G343" t="n">
-        <v>0.1888</v>
+        <v>0.188801666666667</v>
       </c>
       <c r="H343" t="n">
         <v>0.46</v>
@@ -28449,7 +28449,7 @@
         <v>1.2</v>
       </c>
       <c r="G349" t="n">
-        <v>1.2606542134083</v>
+        <v>1.25992989556219</v>
       </c>
       <c r="H349" t="n">
         <v>4.76</v>
@@ -28692,7 +28692,7 @@
         <v>110</v>
       </c>
       <c r="G352" t="n">
-        <v>516.976359627955</v>
+        <v>516.978213524695</v>
       </c>
       <c r="H352" t="n">
         <v>7900</v>
@@ -28777,7 +28777,7 @@
         <v>110</v>
       </c>
       <c r="G353" t="n">
-        <v>516.976359627955</v>
+        <v>516.978213524695</v>
       </c>
       <c r="H353" t="n">
         <v>7900</v>
@@ -28862,7 +28862,7 @@
         <v>110</v>
       </c>
       <c r="G354" t="n">
-        <v>516.976359627955</v>
+        <v>516.978213524695</v>
       </c>
       <c r="H354" t="n">
         <v>7900</v>
@@ -28947,7 +28947,7 @@
         <v>110</v>
       </c>
       <c r="G355" t="n">
-        <v>516.976359627955</v>
+        <v>516.978213524695</v>
       </c>
       <c r="H355" t="n">
         <v>7900</v>
@@ -29106,27 +29106,27 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>0.00441</v>
+        <v>0.0044</v>
       </c>
       <c r="G357" t="n">
-        <v>0.0065109744125694</v>
+        <v>0.006505948354604</v>
       </c>
       <c r="H357" t="n">
         <v>0.0443929169638186</v>
       </c>
       <c r="I357" t="n">
-        <v>0.01456</v>
+        <v>0.01453</v>
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
-        <v>0.00445</v>
+        <v>0.00446</v>
       </c>
       <c r="M357" t="n">
         <v>0.00743</v>
       </c>
       <c r="N357" t="n">
-        <v>0.01135</v>
+        <v>0.01136</v>
       </c>
       <c r="O357" t="n">
         <v>1795602</v>
@@ -29187,27 +29187,27 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0.00441</v>
+        <v>0.0044</v>
       </c>
       <c r="G358" t="n">
-        <v>0.0065109744125694</v>
+        <v>0.006505948354604</v>
       </c>
       <c r="H358" t="n">
         <v>0.0443929169638186</v>
       </c>
       <c r="I358" t="n">
-        <v>0.01456</v>
+        <v>0.01453</v>
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
-        <v>0.00445</v>
+        <v>0.00446</v>
       </c>
       <c r="M358" t="n">
         <v>0.00743</v>
       </c>
       <c r="N358" t="n">
-        <v>0.01135</v>
+        <v>0.01136</v>
       </c>
       <c r="O358" t="n">
         <v>1795602</v>
@@ -29271,7 +29271,7 @@
         <v>0.14</v>
       </c>
       <c r="G359" t="n">
-        <v>0.184094490126991</v>
+        <v>0.184126971684418</v>
       </c>
       <c r="H359" t="n">
         <v>0.44</v>
@@ -29352,7 +29352,7 @@
         <v>0.14</v>
       </c>
       <c r="G360" t="n">
-        <v>0.184094490126991</v>
+        <v>0.184126971684418</v>
       </c>
       <c r="H360" t="n">
         <v>0.44</v>
@@ -29506,7 +29506,7 @@
         <v>0.155</v>
       </c>
       <c r="G362" t="n">
-        <v>0.195440677966102</v>
+        <v>0.195449152542373</v>
       </c>
       <c r="H362" t="n">
         <v>0.46</v>
@@ -29583,7 +29583,7 @@
         <v>0.155</v>
       </c>
       <c r="G363" t="n">
-        <v>0.195440677966102</v>
+        <v>0.195449152542373</v>
       </c>
       <c r="H363" t="n">
         <v>0.46</v>
@@ -30049,7 +30049,7 @@
         <v>1.2</v>
       </c>
       <c r="G369" t="n">
-        <v>1.25152825909974</v>
+        <v>1.25100526944411</v>
       </c>
       <c r="H369" t="n">
         <v>2.8</v>
@@ -30292,7 +30292,7 @@
         <v>100</v>
       </c>
       <c r="G372" t="n">
-        <v>179.620427424565</v>
+        <v>179.622281321305</v>
       </c>
       <c r="H372" t="n">
         <v>1300</v>
@@ -30377,7 +30377,7 @@
         <v>100</v>
       </c>
       <c r="G373" t="n">
-        <v>179.620427424565</v>
+        <v>179.622281321305</v>
       </c>
       <c r="H373" t="n">
         <v>1300</v>
@@ -30462,7 +30462,7 @@
         <v>100</v>
       </c>
       <c r="G374" t="n">
-        <v>179.620427424565</v>
+        <v>179.622281321305</v>
       </c>
       <c r="H374" t="n">
         <v>1300</v>
@@ -30547,7 +30547,7 @@
         <v>100</v>
       </c>
       <c r="G375" t="n">
-        <v>179.620427424565</v>
+        <v>179.622281321305</v>
       </c>
       <c r="H375" t="n">
         <v>1300</v>
@@ -30709,7 +30709,7 @@
         <v>0.0044</v>
       </c>
       <c r="G377" t="n">
-        <v>0.0055191121170656</v>
+        <v>0.0055176029484516</v>
       </c>
       <c r="H377" t="n">
         <v>0.0443929169638186</v>
@@ -30720,13 +30720,13 @@
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
-        <v>0.00441</v>
+        <v>0.0044</v>
       </c>
       <c r="M377" t="n">
         <v>0.00729</v>
       </c>
       <c r="N377" t="n">
-        <v>0.01086</v>
+        <v>0.01087</v>
       </c>
       <c r="O377" t="n">
         <v>1795602</v>
@@ -30790,7 +30790,7 @@
         <v>0.0044</v>
       </c>
       <c r="G378" t="n">
-        <v>0.0055191121170656</v>
+        <v>0.0055176029484516</v>
       </c>
       <c r="H378" t="n">
         <v>0.0443929169638186</v>
@@ -30801,13 +30801,13 @@
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
-        <v>0.00441</v>
+        <v>0.0044</v>
       </c>
       <c r="M378" t="n">
         <v>0.00729</v>
       </c>
       <c r="N378" t="n">
-        <v>0.01086</v>
+        <v>0.01087</v>
       </c>
       <c r="O378" t="n">
         <v>1795602</v>
@@ -30871,7 +30871,7 @@
         <v>0.156</v>
       </c>
       <c r="G379" t="n">
-        <v>0.175252854215632</v>
+        <v>0.17530385692108</v>
       </c>
       <c r="H379" t="n">
         <v>0.44</v>
@@ -30952,7 +30952,7 @@
         <v>0.156</v>
       </c>
       <c r="G380" t="n">
-        <v>0.175252854215632</v>
+        <v>0.17530385692108</v>
       </c>
       <c r="H380" t="n">
         <v>0.44</v>
@@ -31106,7 +31106,7 @@
         <v>0.162</v>
       </c>
       <c r="G382" t="n">
-        <v>0.184508474576271</v>
+        <v>0.184516949152542</v>
       </c>
       <c r="H382" t="n">
         <v>0.446</v>
@@ -31183,7 +31183,7 @@
         <v>0.162</v>
       </c>
       <c r="G383" t="n">
-        <v>0.184508474576271</v>
+        <v>0.184516949152542</v>
       </c>
       <c r="H383" t="n">
         <v>0.446</v>
@@ -31649,7 +31649,7 @@
         <v>1.2</v>
       </c>
       <c r="G389" t="n">
-        <v>1.28038896411343</v>
+        <v>1.27973496696424</v>
       </c>
       <c r="H389" t="n">
         <v>2.8</v>
@@ -31892,7 +31892,7 @@
         <v>100</v>
       </c>
       <c r="G392" t="n">
-        <v>277.729916106129</v>
+        <v>277.731835051877</v>
       </c>
       <c r="H392" t="n">
         <v>5200</v>
@@ -31977,7 +31977,7 @@
         <v>100</v>
       </c>
       <c r="G393" t="n">
-        <v>277.729916106129</v>
+        <v>277.731835051877</v>
       </c>
       <c r="H393" t="n">
         <v>5200</v>
@@ -32062,7 +32062,7 @@
         <v>100</v>
       </c>
       <c r="G394" t="n">
-        <v>277.729916106129</v>
+        <v>277.731835051877</v>
       </c>
       <c r="H394" t="n">
         <v>5200</v>
@@ -32147,7 +32147,7 @@
         <v>100</v>
       </c>
       <c r="G395" t="n">
-        <v>277.729916106129</v>
+        <v>277.731835051877</v>
       </c>
       <c r="H395" t="n">
         <v>5200</v>
@@ -32309,13 +32309,13 @@
         <v>0.0048</v>
       </c>
       <c r="G397" t="n">
-        <v>0.0059572937229897</v>
+        <v>0.0059586442349942</v>
       </c>
       <c r="H397" t="n">
         <v>0.0443929169638186</v>
       </c>
       <c r="I397" t="n">
-        <v>0.01133</v>
+        <v>0.01135</v>
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
@@ -32326,7 +32326,7 @@
         <v>0.0089</v>
       </c>
       <c r="N397" t="n">
-        <v>0.01034</v>
+        <v>0.01035</v>
       </c>
       <c r="O397" t="n">
         <v>1795602</v>
@@ -32390,13 +32390,13 @@
         <v>0.0048</v>
       </c>
       <c r="G398" t="n">
-        <v>0.0059572937229897</v>
+        <v>0.0059586442349942</v>
       </c>
       <c r="H398" t="n">
         <v>0.0443929169638186</v>
       </c>
       <c r="I398" t="n">
-        <v>0.01133</v>
+        <v>0.01135</v>
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
@@ -32407,7 +32407,7 @@
         <v>0.0089</v>
       </c>
       <c r="N398" t="n">
-        <v>0.01034</v>
+        <v>0.01035</v>
       </c>
       <c r="O398" t="n">
         <v>1795602</v>
@@ -32471,7 +32471,7 @@
         <v>0.138</v>
       </c>
       <c r="G399" t="n">
-        <v>0.169679320730102</v>
+        <v>0.169752391713832</v>
       </c>
       <c r="H399" t="n">
         <v>0.513</v>
@@ -32482,7 +32482,7 @@
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
-        <v>0.01348</v>
+        <v>0.01405</v>
       </c>
       <c r="M399" t="n">
         <v>0.34505</v>
@@ -32552,7 +32552,7 @@
         <v>0.138</v>
       </c>
       <c r="G400" t="n">
-        <v>0.169679320730102</v>
+        <v>0.169752391713832</v>
       </c>
       <c r="H400" t="n">
         <v>0.513</v>
@@ -32563,7 +32563,7 @@
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
-        <v>0.01348</v>
+        <v>0.01405</v>
       </c>
       <c r="M400" t="n">
         <v>0.34505</v>
@@ -32706,7 +32706,7 @@
         <v>0.155</v>
       </c>
       <c r="G402" t="n">
-        <v>0.179315789473684</v>
+        <v>0.179324561403509</v>
       </c>
       <c r="H402" t="n">
         <v>0.527</v>
@@ -32783,7 +32783,7 @@
         <v>0.155</v>
       </c>
       <c r="G403" t="n">
-        <v>0.179315789473684</v>
+        <v>0.179324561403509</v>
       </c>
       <c r="H403" t="n">
         <v>0.527</v>
@@ -33142,6 +33142,1606 @@
         </is>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0.48075</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="O408" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P408" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1.21512704484299</v>
+      </c>
+      <c r="H409" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M409" t="n">
+        <v>2</v>
+      </c>
+      <c r="N409" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="O409" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P409" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U409" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.0123508771929825</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0.01881</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0.02488</v>
+      </c>
+      <c r="O410" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P410" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.0123508771929825</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0.01881</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0.02488</v>
+      </c>
+      <c r="O411" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P411" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>130</v>
+      </c>
+      <c r="G412" t="n">
+        <v>314.263157894737</v>
+      </c>
+      <c r="H412" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I412" t="n">
+        <v>982.9</v>
+      </c>
+      <c r="J412" t="n">
+        <v>12.280701754386</v>
+      </c>
+      <c r="K412" t="n">
+        <v>22.8070175438597</v>
+      </c>
+      <c r="L412" t="n">
+        <v>134</v>
+      </c>
+      <c r="M412" t="n">
+        <v>407.15</v>
+      </c>
+      <c r="N412" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="O412" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P412" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>130</v>
+      </c>
+      <c r="G413" t="n">
+        <v>314.263157894737</v>
+      </c>
+      <c r="H413" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I413" t="n">
+        <v>982.9</v>
+      </c>
+      <c r="J413" t="n">
+        <v>12.280701754386</v>
+      </c>
+      <c r="K413" t="n">
+        <v>22.8070175438597</v>
+      </c>
+      <c r="L413" t="n">
+        <v>134</v>
+      </c>
+      <c r="M413" t="n">
+        <v>407.15</v>
+      </c>
+      <c r="N413" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="O413" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P413" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>130</v>
+      </c>
+      <c r="G414" t="n">
+        <v>314.263157894737</v>
+      </c>
+      <c r="H414" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I414" t="n">
+        <v>982.9</v>
+      </c>
+      <c r="J414" t="n">
+        <v>12.280701754386</v>
+      </c>
+      <c r="K414" t="n">
+        <v>22.8070175438597</v>
+      </c>
+      <c r="L414" t="n">
+        <v>134</v>
+      </c>
+      <c r="M414" t="n">
+        <v>407.15</v>
+      </c>
+      <c r="N414" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="O414" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P414" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>130</v>
+      </c>
+      <c r="G415" t="n">
+        <v>314.263157894737</v>
+      </c>
+      <c r="H415" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I415" t="n">
+        <v>982.9</v>
+      </c>
+      <c r="J415" t="n">
+        <v>12.280701754386</v>
+      </c>
+      <c r="K415" t="n">
+        <v>22.8070175438597</v>
+      </c>
+      <c r="L415" t="n">
+        <v>134</v>
+      </c>
+      <c r="M415" t="n">
+        <v>407.15</v>
+      </c>
+      <c r="N415" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="O415" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P415" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>107</v>
+      </c>
+      <c r="G416" t="n">
+        <v>106.612</v>
+      </c>
+      <c r="H416" t="n">
+        <v>110.53</v>
+      </c>
+      <c r="I416" t="n">
+        <v>110.53</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>106</v>
+      </c>
+      <c r="M416" t="n">
+        <v>110.53</v>
+      </c>
+      <c r="N416" t="n">
+        <v>110.53</v>
+      </c>
+      <c r="O416" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P416" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>0.00393</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.0055271476575799</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.0443929169638186</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.01137</v>
+      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0.008359999999999999</v>
+      </c>
+      <c r="N417" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="O417" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P417" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F418" t="n">
+        <v>0.00393</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.0055271476575799</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.0443929169638186</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.01137</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0.008359999999999999</v>
+      </c>
+      <c r="N418" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="O418" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P418" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S418" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U418" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F419" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.169366426801552</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.43385</v>
+      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>0.01405</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0.30892</v>
+      </c>
+      <c r="N419" t="n">
+        <v>0.41186</v>
+      </c>
+      <c r="O419" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P419" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.169366426801552</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.43385</v>
+      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>0.01405</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0.30892</v>
+      </c>
+      <c r="N420" t="n">
+        <v>0.41186</v>
+      </c>
+      <c r="O420" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P420" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S420" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="G421" t="n">
+        <v>5.1984</v>
+      </c>
+      <c r="H421" t="n">
+        <v>6.739</v>
+      </c>
+      <c r="I421" t="n">
+        <v>6.739</v>
+      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M421" t="n">
+        <v>6.10235</v>
+      </c>
+      <c r="N421" t="n">
+        <v>6.739</v>
+      </c>
+      <c r="O421" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P421" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.178166666666667</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.44185</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0.3191</v>
+      </c>
+      <c r="N422" t="n">
+        <v>0.41346</v>
+      </c>
+      <c r="O422" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P422" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.178166666666667</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.44185</v>
+      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0.3191</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0.41346</v>
+      </c>
+      <c r="O423" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P423" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T423" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O424" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P424" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="N425" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O425" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P425" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F426" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.0304736842105263</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.07615</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N426" t="n">
+        <v>0.06882000000000001</v>
+      </c>
+      <c r="O426" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P426" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.0304736842105263</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.07615</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0.06882000000000001</v>
+      </c>
+      <c r="O427" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="P427" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="U427" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
+++ b/state_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
@@ -9817,10 +9817,10 @@
         <v>65</v>
       </c>
       <c r="G117" t="n">
-        <v>542.1471154627041</v>
+        <v>543.123206496377</v>
       </c>
       <c r="H117" t="n">
-        <v>6783.61673692107</v>
+        <v>6837.30174377306</v>
       </c>
       <c r="I117" t="n">
         <v>3875</v>
@@ -9902,10 +9902,10 @@
         <v>65</v>
       </c>
       <c r="G118" t="n">
-        <v>542.1471154627041</v>
+        <v>543.123206496377</v>
       </c>
       <c r="H118" t="n">
-        <v>6783.61673692107</v>
+        <v>6837.30174377306</v>
       </c>
       <c r="I118" t="n">
         <v>3875</v>
@@ -9987,10 +9987,10 @@
         <v>65</v>
       </c>
       <c r="G119" t="n">
-        <v>542.1471154627041</v>
+        <v>543.123206496377</v>
       </c>
       <c r="H119" t="n">
-        <v>6783.61673692107</v>
+        <v>6837.30174377306</v>
       </c>
       <c r="I119" t="n">
         <v>3875</v>
@@ -10072,10 +10072,10 @@
         <v>65</v>
       </c>
       <c r="G120" t="n">
-        <v>542.1471154627041</v>
+        <v>543.123206496377</v>
       </c>
       <c r="H120" t="n">
-        <v>6783.61673692107</v>
+        <v>6837.30174377306</v>
       </c>
       <c r="I120" t="n">
         <v>3875</v>
@@ -10955,7 +10955,7 @@
         <v>65</v>
       </c>
       <c r="G131" t="n">
-        <v>1253.88380267529</v>
+        <v>1254.82564490077</v>
       </c>
       <c r="H131" t="n">
         <v>43500</v>
@@ -11040,7 +11040,7 @@
         <v>65</v>
       </c>
       <c r="G132" t="n">
-        <v>1253.88380267529</v>
+        <v>1254.82564490077</v>
       </c>
       <c r="H132" t="n">
         <v>43500</v>
@@ -11125,7 +11125,7 @@
         <v>65</v>
       </c>
       <c r="G133" t="n">
-        <v>1253.88380267529</v>
+        <v>1254.82564490077</v>
       </c>
       <c r="H133" t="n">
         <v>43500</v>
@@ -11210,7 +11210,7 @@
         <v>65</v>
       </c>
       <c r="G134" t="n">
-        <v>1253.88380267529</v>
+        <v>1254.82564490077</v>
       </c>
       <c r="H134" t="n">
         <v>43500</v>
@@ -12093,7 +12093,7 @@
         <v>65</v>
       </c>
       <c r="G145" t="n">
-        <v>1021.92163987274</v>
+        <v>1022.83155524311</v>
       </c>
       <c r="H145" t="n">
         <v>43500</v>
@@ -12178,7 +12178,7 @@
         <v>65</v>
       </c>
       <c r="G146" t="n">
-        <v>1021.92163987274</v>
+        <v>1022.83155524311</v>
       </c>
       <c r="H146" t="n">
         <v>43500</v>
@@ -12263,7 +12263,7 @@
         <v>65</v>
       </c>
       <c r="G147" t="n">
-        <v>1021.92163987274</v>
+        <v>1022.83155524311</v>
       </c>
       <c r="H147" t="n">
         <v>43500</v>
@@ -12348,7 +12348,7 @@
         <v>65</v>
       </c>
       <c r="G148" t="n">
-        <v>1021.92163987274</v>
+        <v>1022.83155524311</v>
       </c>
       <c r="H148" t="n">
         <v>43500</v>
@@ -13385,13 +13385,13 @@
         <v>74</v>
       </c>
       <c r="G161" t="n">
-        <v>1158.87958910437</v>
+        <v>1159.78950447474</v>
       </c>
       <c r="H161" t="n">
         <v>43500</v>
       </c>
       <c r="I161" t="n">
-        <v>4510.83921</v>
+        <v>4540.36596</v>
       </c>
       <c r="J161" t="n">
         <v>13.5593220338983</v>
@@ -13470,13 +13470,13 @@
         <v>74</v>
       </c>
       <c r="G162" t="n">
-        <v>1158.87958910437</v>
+        <v>1159.78950447474</v>
       </c>
       <c r="H162" t="n">
         <v>43500</v>
       </c>
       <c r="I162" t="n">
-        <v>4510.83921</v>
+        <v>4540.36596</v>
       </c>
       <c r="J162" t="n">
         <v>13.5593220338983</v>
@@ -13555,13 +13555,13 @@
         <v>74</v>
       </c>
       <c r="G163" t="n">
-        <v>1158.87958910437</v>
+        <v>1159.78950447474</v>
       </c>
       <c r="H163" t="n">
         <v>43500</v>
       </c>
       <c r="I163" t="n">
-        <v>4510.83921</v>
+        <v>4540.36596</v>
       </c>
       <c r="J163" t="n">
         <v>13.5593220338983</v>
@@ -13640,13 +13640,13 @@
         <v>74</v>
       </c>
       <c r="G164" t="n">
-        <v>1158.87958910437</v>
+        <v>1159.78950447474</v>
       </c>
       <c r="H164" t="n">
         <v>43500</v>
       </c>
       <c r="I164" t="n">
-        <v>4510.83921</v>
+        <v>4540.36596</v>
       </c>
       <c r="J164" t="n">
         <v>13.5593220338983</v>
@@ -14677,13 +14677,13 @@
         <v>79</v>
       </c>
       <c r="G177" t="n">
-        <v>1146.24774130375</v>
+        <v>1147.15765667412</v>
       </c>
       <c r="H177" t="n">
         <v>43500</v>
       </c>
       <c r="I177" t="n">
-        <v>4510.83921</v>
+        <v>4540.36596</v>
       </c>
       <c r="J177" t="n">
         <v>11.864406779661</v>
@@ -14762,13 +14762,13 @@
         <v>79</v>
       </c>
       <c r="G178" t="n">
-        <v>1146.24774130375</v>
+        <v>1147.15765667412</v>
       </c>
       <c r="H178" t="n">
         <v>43500</v>
       </c>
       <c r="I178" t="n">
-        <v>4510.83921</v>
+        <v>4540.36596</v>
       </c>
       <c r="J178" t="n">
         <v>11.864406779661</v>
@@ -14847,13 +14847,13 @@
         <v>79</v>
       </c>
       <c r="G179" t="n">
-        <v>1146.24774130375</v>
+        <v>1147.15765667412</v>
       </c>
       <c r="H179" t="n">
         <v>43500</v>
       </c>
       <c r="I179" t="n">
-        <v>4510.83921</v>
+        <v>4540.36596</v>
       </c>
       <c r="J179" t="n">
         <v>11.864406779661</v>
@@ -14932,13 +14932,13 @@
         <v>79</v>
       </c>
       <c r="G180" t="n">
-        <v>1146.24774130375</v>
+        <v>1147.15765667412</v>
       </c>
       <c r="H180" t="n">
         <v>43500</v>
       </c>
       <c r="I180" t="n">
-        <v>4510.83921</v>
+        <v>4540.36596</v>
       </c>
       <c r="J180" t="n">
         <v>11.864406779661</v>
@@ -18849,13 +18849,13 @@
         <v>1.47</v>
       </c>
       <c r="G229" t="n">
-        <v>1.77560586407169</v>
+        <v>1.73563831849746</v>
       </c>
       <c r="H229" t="n">
         <v>10.73</v>
       </c>
       <c r="I229" t="n">
-        <v>4.44112</v>
+        <v>4.26116</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18866,7 +18866,7 @@
         <v>2.119</v>
       </c>
       <c r="N229" t="n">
-        <v>3.90196</v>
+        <v>2.7698</v>
       </c>
       <c r="O229" t="n">
         <v>1795602</v>
@@ -20449,13 +20449,13 @@
         <v>1.6</v>
       </c>
       <c r="G249" t="n">
-        <v>2.05269004789072</v>
+        <v>2.01449883767535</v>
       </c>
       <c r="H249" t="n">
         <v>10.73</v>
       </c>
       <c r="I249" t="n">
-        <v>5.41026</v>
+        <v>5.29</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -20466,7 +20466,7 @@
         <v>2.585</v>
       </c>
       <c r="N249" t="n">
-        <v>4.99</v>
+        <v>4.67155</v>
       </c>
       <c r="O249" t="n">
         <v>1795602</v>
@@ -22049,13 +22049,13 @@
         <v>1.6</v>
       </c>
       <c r="G269" t="n">
-        <v>1.86427220730987</v>
+        <v>1.82990011811603</v>
       </c>
       <c r="H269" t="n">
         <v>5.86</v>
       </c>
       <c r="I269" t="n">
-        <v>5.1</v>
+        <v>4.76</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>2.6</v>
       </c>
       <c r="N269" t="n">
-        <v>4.655</v>
+        <v>4.64808</v>
       </c>
       <c r="O269" t="n">
         <v>1795602</v>
@@ -23649,13 +23649,13 @@
         <v>1.485</v>
       </c>
       <c r="G289" t="n">
-        <v>1.79256943010564</v>
+        <v>1.75951934434234</v>
       </c>
       <c r="H289" t="n">
         <v>5.86</v>
       </c>
       <c r="I289" t="n">
-        <v>5.066</v>
+        <v>4.75862</v>
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
@@ -23666,7 +23666,7 @@
         <v>2.5796</v>
       </c>
       <c r="N289" t="n">
-        <v>4.6214</v>
+        <v>4.6167</v>
       </c>
       <c r="O289" t="n">
         <v>1795602</v>
@@ -25249,13 +25249,13 @@
         <v>1.425</v>
       </c>
       <c r="G309" t="n">
-        <v>1.75348028511228</v>
+        <v>1.72165427659947</v>
       </c>
       <c r="H309" t="n">
         <v>5.86</v>
       </c>
       <c r="I309" t="n">
-        <v>5.032</v>
+        <v>4.75723</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -25266,7 +25266,7 @@
         <v>2.5592</v>
       </c>
       <c r="N309" t="n">
-        <v>4.5878</v>
+        <v>4.58531</v>
       </c>
       <c r="O309" t="n">
         <v>1795602</v>
